--- a/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
+++ b/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9957009372830951</v>
+        <v>0.9578419858914745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4721135240418679</v>
+        <v>-0.245726854437696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2424501308413876</v>
+        <v>0.1720339479864393</v>
       </c>
       <c r="E2" t="n">
-        <v>9.666666666666666</v>
+        <v>11.36666666666667</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9991145398854945</v>
+        <v>0.992464977442418</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9481857503304099</v>
+        <v>0.9562958068004326</v>
       </c>
       <c r="K2" t="n">
-        <v>0.500187944778189</v>
+        <v>0.4481821424802224</v>
       </c>
       <c r="L2" t="n">
-        <v>2.066666666666667</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6681666666666666</v>
+        <v>0.3410625</v>
       </c>
       <c r="C2" t="n">
-        <v>235.8226970963614</v>
+        <v>6.466319442341687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4919885442123618</v>
+        <v>0.2841204140220085</v>
       </c>
       <c r="E2" t="n">
-        <v>52.40299044838633</v>
+        <v>26.15539012034892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2145932027079985</v>
+        <v>0.09193470451595973</v>
       </c>
       <c r="G2" t="n">
-        <v>60.23457818561945</v>
+        <v>17.09549486154912</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -732,367 +732,367 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.0045</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0.5430901803288345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02592000417597168</v>
+        <v>0.0243544874700562</v>
       </c>
       <c r="E3" t="n">
-        <v>6.564677671503556</v>
+        <v>10.89775387970267</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009970126965903929</v>
+        <v>0.005787835990909705</v>
       </c>
       <c r="G3" t="n">
-        <v>3.737284005219109</v>
+        <v>4.972755083508855</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.01319406267179769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04646059073674617</v>
+        <v>0.06295594271372183</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04646059073674617</v>
+        <v>0.07615000538551953</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05268416202143027</v>
+        <v>0.08571889335684853</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0062235712846841</v>
+        <v>0.02276295064312669</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1997513666261179</v>
+        <v>0.4943733024584296</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9556021591754008</v>
+        <v>0.9292384844079059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001333333333333336</v>
+        <v>-0.004874999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4999981250070312</v>
+        <v>-0.2788452697411611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02614940727632436</v>
+        <v>0.02258586498489901</v>
       </c>
       <c r="E4" t="n">
-        <v>8.065872895544155</v>
+        <v>6.680608320246392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0114210878339394</v>
+        <v>0.005479058046754798</v>
       </c>
       <c r="G4" t="n">
-        <v>5.523608627312952</v>
+        <v>6.259289929768808</v>
       </c>
       <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.0142935678944475</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05959727695435886</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.07389084484880636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001995510102269896</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.05322203914110137</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.05122652903883147</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.05315043934241939</v>
+        <v>0.07949398871124222</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.15997986819733e-05</v>
+        <v>0.01989671175688336</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3333253779900134</v>
+        <v>0.1992072860100773</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9512697524046797</v>
+        <v>0.4821854546895901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002500000000000004</v>
+        <v>6.250000000000006e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.499999000002</v>
+        <v>0.002284831768428246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02588257766546183</v>
+        <v>0.03137848373685647</v>
       </c>
       <c r="E5" t="n">
-        <v>5.519459431134518</v>
+        <v>7.055767295343712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01490826250615856</v>
+        <v>0.009418942933637525</v>
       </c>
       <c r="G5" t="n">
-        <v>5.693658712018387</v>
+        <v>3.895402890299428</v>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.003741581441756056</v>
+        <v>0.0001832508704416348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06947220283787157</v>
+        <v>0.1024525284899612</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06573062139611552</v>
+        <v>0.1022692776195195</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05260809010684989</v>
+        <v>0.1104407926648517</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01686411273102168</v>
+        <v>0.007988264174890541</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3314700174197598</v>
+        <v>0.4980108787692111</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9383234186233592</v>
+        <v>0.3223446807839116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.00275</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-0.2192229596114451</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02296850587535668</v>
+        <v>0.032848674595391</v>
       </c>
       <c r="E6" t="n">
-        <v>10.2878418746081</v>
+        <v>5.923150402989839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01018942079378205</v>
+        <v>0.008141369657061484</v>
       </c>
       <c r="G6" t="n">
-        <v>7.486680223501506</v>
+        <v>4.804626610091672</v>
       </c>
       <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.008063038299431922</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.08855599960783204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.09661903790726396</v>
+      </c>
+      <c r="N6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.04748249555530894</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.04748249555530894</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04668504205139085</v>
+        <v>0.1156153270734234</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0007974535039180913</v>
+        <v>0.02705932746559139</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1999681069464887</v>
+        <v>0.2483201558963237</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4884046638595484</v>
+        <v>0.2441037330410017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0003125000000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01687513459035719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02143239770678641</v>
+        <v>0.03338127440148256</v>
       </c>
       <c r="E7" t="n">
-        <v>5.701656071248363</v>
+        <v>9.568469296606921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009481190817346578</v>
+        <v>0.009038458066697914</v>
       </c>
       <c r="G7" t="n">
-        <v>3.437965563813347</v>
+        <v>7.300668655657923</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0009162543522081738</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.09831388608127686</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.09739763172906869</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.04418215813782245</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04418215813782245</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
       <c r="P7" t="n">
-        <v>0.04356279827835857</v>
+        <v>0.1174898837043676</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0006193598594638819</v>
+        <v>0.01917599762309076</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2499612960017093</v>
+        <v>0.3312161996476094</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3284954539684041</v>
+        <v>0.1961785350578573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.00525</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0.3360696946832617</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02378831724852928</v>
+        <v>0.009818360777220226</v>
       </c>
       <c r="E8" t="n">
-        <v>4.257604062505979</v>
+        <v>2.999700668330409</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01050060621598937</v>
+        <v>0.004399633563212215</v>
       </c>
       <c r="G8" t="n">
-        <v>2.586722339484815</v>
+        <v>1.800246040458896</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.01539307311709731</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04893261335158767</v>
+        <v>0.04785606900437087</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04893261335158767</v>
+        <v>0.06324914212146818</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0483513641290422</v>
+        <v>0.03455704093286192</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005812492225454671</v>
+        <v>0.01329902807150894</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2499636772017405</v>
+        <v>0.2491715650903105</v>
       </c>
       <c r="S8" t="n">
-        <v>0.327983634541773</v>
+        <v>0.164928073473509</v>
       </c>
     </row>
     <row r="9">
@@ -1102,58 +1102,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001000000000000002</v>
+        <v>-0.003812499999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4999975000124999</v>
+        <v>-0.1547087011158031</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02429521910155551</v>
+        <v>0.02773975377793723</v>
       </c>
       <c r="E9" t="n">
-        <v>5.530621949243989</v>
+        <v>7.410413158226796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0095435190220176</v>
+        <v>0.008583662675211629</v>
       </c>
       <c r="G9" t="n">
-        <v>4.282278560711188</v>
+        <v>3.43757825500581</v>
       </c>
       <c r="H9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.001496632576702422</v>
+        <v>-0.01117830309693971</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04447260631551162</v>
+        <v>0.09336694690438166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0429759737388092</v>
+        <v>0.1045452500013214</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0493816764381179</v>
+        <v>0.09763379331056603</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004909070122606274</v>
+        <v>0.004266846406184369</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4987757374646656</v>
+        <v>0.3328599126260163</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2473425532319534</v>
+        <v>0.1638123658760304</v>
       </c>
     </row>
     <row r="10">
@@ -1163,1101 +1163,1101 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.005375</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.509026771033833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01710152121724364</v>
+        <v>0.01591535762377758</v>
       </c>
       <c r="E10" t="n">
-        <v>4.59457843873462</v>
+        <v>8.733322437618732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007853420189296124</v>
+        <v>0.003747998563863297</v>
       </c>
       <c r="G10" t="n">
-        <v>2.855502505294899</v>
+        <v>7.56113216333349</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01575957485798057</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03659677981498062</v>
+        <v>0.04076804927580586</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03659677981498062</v>
+        <v>0.05652762413378643</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03475999882196839</v>
+        <v>0.05601624113691719</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001836780993012231</v>
+        <v>0.01524819186111134</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1428196673642224</v>
+        <v>0.4962167955483862</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1985467655476552</v>
+        <v>0.1417127592018395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.0046875</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0.1946967784789797</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02527195014620638</v>
+        <v>0.02045946637865043</v>
       </c>
       <c r="E11" t="n">
-        <v>4.365063840472503</v>
+        <v>7.531549291186244</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01444073120704343</v>
+        <v>0.004873115869272309</v>
       </c>
       <c r="G11" t="n">
-        <v>3.896036601913647</v>
+        <v>3.57411826217229</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.01374381528312259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0672935164059844</v>
+        <v>0.05300627108043125</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0672935164059844</v>
+        <v>0.06675008636355384</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05136694836393996</v>
+        <v>0.07200984290085398</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01592656804204444</v>
+        <v>0.01900357182042273</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3315730597012531</v>
+        <v>0.3312351165576833</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1973440055845152</v>
+        <v>0.141507763509235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.0009375000000000008</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0.06127295653522916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02309786067895169</v>
+        <v>0.02269816803763755</v>
       </c>
       <c r="E12" t="n">
-        <v>7.918436887803299</v>
+        <v>12.30658373432267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007677399085274114</v>
+        <v>0.005592694228626585</v>
       </c>
       <c r="G12" t="n">
-        <v>3.346888354877747</v>
+        <v>4.147140746937479</v>
       </c>
       <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.002748763056624521</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03577652501752776</v>
+        <v>0.06083333011263121</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03577652501752776</v>
+        <v>0.06358209316925573</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04694796444077717</v>
+        <v>0.07988925440563134</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01117143942324941</v>
+        <v>0.01905592429300013</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2493037296216354</v>
+        <v>0.1424693022517449</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1656787649203258</v>
+        <v>0.1240143633990048</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001000000000000002</v>
+        <v>-0.006812499999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4999975000124999</v>
+        <v>-0.4388029706371854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02482830049274583</v>
+        <v>0.02424060384488336</v>
       </c>
       <c r="E13" t="n">
-        <v>19.34334782039715</v>
+        <v>6.908242225457221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009357922733494086</v>
+        <v>0.005970725748455458</v>
       </c>
       <c r="G13" t="n">
-        <v>7.785405438122782</v>
+        <v>3.435604662504538</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001496632576702422</v>
+        <v>-0.01997434487813817</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04360773135124699</v>
+        <v>0.06494528676511871</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04211109877454457</v>
+        <v>0.08491963164325687</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05046520042960381</v>
+        <v>0.085318064625253</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006857469078356826</v>
+        <v>0.02037277786013429</v>
       </c>
       <c r="R13" t="n">
-        <v>0.199726076920675</v>
+        <v>0.2487331536784147</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1655050666318961</v>
+        <v>0.1100725202363868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.0040625</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0.442370912272213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02178813769187932</v>
+        <v>0.02328677368059327</v>
       </c>
       <c r="E14" t="n">
-        <v>7.358973888061867</v>
+        <v>16.29727354382676</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007259207085986921</v>
+        <v>0.004754734747356259</v>
       </c>
       <c r="G14" t="n">
-        <v>5.248504825636573</v>
+        <v>9.03218750723191</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.01191130657870625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03382775872852169</v>
+        <v>0.05171860585608173</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03382775872852169</v>
+        <v>0.06362991243478798</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04428586386449416</v>
+        <v>0.08196093110996744</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01045810513597246</v>
+        <v>0.0302423252538857</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3321753583927829</v>
+        <v>0.1987975797864824</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1421701005912556</v>
+        <v>0.0993677240420361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.0026875</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0.1525186273142846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01832225832985927</v>
+        <v>0.02291408553182304</v>
       </c>
       <c r="E15" t="n">
-        <v>8.019428057896967</v>
+        <v>8.403941801207999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006723184985020282</v>
+        <v>0.005337434167887422</v>
       </c>
       <c r="G15" t="n">
-        <v>14.90020164518704</v>
+        <v>4.773693499574602</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.007879787428990289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03132990654027687</v>
+        <v>0.05805679363401719</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03132990654027687</v>
+        <v>0.06593658106300748</v>
       </c>
       <c r="N15" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03724122958836752</v>
+        <v>0.08064920505869763</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005911323048090653</v>
+        <v>0.02259241142468044</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9941234153422408</v>
+        <v>0.4944149866040566</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1245123798470356</v>
+        <v>0.09934495334306939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.011625</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0.602974844520464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01809860996761644</v>
+        <v>0.02479079587748948</v>
       </c>
       <c r="E16" t="n">
-        <v>4.179615056822087</v>
+        <v>11.68938415404302</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006489503847918479</v>
+        <v>0.005581946193777552</v>
       </c>
       <c r="G16" t="n">
-        <v>2.299519705966442</v>
+        <v>9.547234773920719</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.03408466190214404</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03024095715067398</v>
+        <v>0.06071642067233201</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03024095715067398</v>
+        <v>0.09480108257447604</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03678664916190481</v>
+        <v>0.0872545394628671</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006545692011230824</v>
+        <v>0.02653811879053509</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9934968754392546</v>
+        <v>0.330410508888492</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1107390162394439</v>
+        <v>0.0990608920195751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0.3332327242674511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01472293846123528</v>
+        <v>0.02718323134321348</v>
       </c>
       <c r="E17" t="n">
-        <v>8.374377050555557</v>
+        <v>14.13153831108279</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006151661720635674</v>
+        <v>0.007345332243363064</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1511351642422</v>
+        <v>12.32406707803286</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.01759208356239692</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02866661964594643</v>
+        <v>0.07989727363607206</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02866661964594643</v>
+        <v>0.09748935719846899</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02992536845508394</v>
+        <v>0.09567503777151264</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001258748809137514</v>
+        <v>0.01577776413544058</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1249803351439965</v>
+        <v>0.4960864326375265</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09971415322960493</v>
+        <v>0.08266177968612651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.3700351985437769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01887267347320833</v>
+        <v>0.02670444262967408</v>
       </c>
       <c r="E18" t="n">
-        <v>7.379076725626525</v>
+        <v>10.57618957695553</v>
       </c>
       <c r="F18" t="n">
-        <v>0.005640075816120741</v>
+        <v>0.00613733764322238</v>
       </c>
       <c r="G18" t="n">
-        <v>10.866879109127</v>
+        <v>11.41647295418205</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.01612607659886385</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02628263964071272</v>
+        <v>0.06675757186076502</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02628263964071272</v>
+        <v>0.05063149526190117</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03835998560377481</v>
+        <v>0.09398987651624882</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0120773459630621</v>
+        <v>0.0272323046554838</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1995180702479466</v>
+        <v>0.4932833783792451</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09069239676524242</v>
+        <v>0.07662464459003804</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_kurt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.009375</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-0.440928405884153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01776428976483914</v>
+        <v>0.02841920133485335</v>
       </c>
       <c r="E19" t="n">
-        <v>5.342334857071019</v>
+        <v>16.52396618456245</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005566205839726645</v>
+        <v>0.007298940134744791</v>
       </c>
       <c r="G19" t="n">
-        <v>3.507939604247718</v>
+        <v>5.894825123976821</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.02748763056624519</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02593840703939117</v>
+        <v>0.07939265344000433</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02593840703939117</v>
+        <v>0.1068802840062495</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03610712073241155</v>
+        <v>0.1000252003456955</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01016871369302037</v>
+        <v>0.02063254690569115</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3322072930500801</v>
+        <v>0.3310564871666999</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08315359401929494</v>
+        <v>0.07629580634991044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.0006875000000000006</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-0.04318074591340842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01696830095579272</v>
+        <v>0.02422779423339019</v>
       </c>
       <c r="E20" t="n">
-        <v>7.223860958208074</v>
+        <v>9.625376566739666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005135989128952001</v>
+        <v>0.00501123107358564</v>
       </c>
       <c r="G20" t="n">
-        <v>10.69547835229628</v>
+        <v>3.620835980390611</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
+        <v>22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.002015759574857983</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.05450858954700505</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.05652434912186303</v>
+      </c>
+      <c r="N20" t="n">
         <v>19</v>
       </c>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.02393360583718325</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.02393360583718325</v>
-      </c>
-      <c r="N20" t="n">
-        <v>18</v>
-      </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03448921962798494</v>
+        <v>0.08527297947522156</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01055561379080169</v>
+        <v>0.03076438992821651</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4973749510537289</v>
+        <v>0.2480919010048635</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07678171820162007</v>
+        <v>0.07114134156943795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.0018125</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0.1135517969148984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01577890615719156</v>
+        <v>0.02291786366275362</v>
       </c>
       <c r="E21" t="n">
-        <v>4.705479649075593</v>
+        <v>7.642341047142441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004901880665001402</v>
+        <v>0.004352480982838957</v>
       </c>
       <c r="G21" t="n">
-        <v>3.264899483001829</v>
+        <v>3.410038065490817</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
+        <v>26</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.005314275242807405</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.04734317694014421</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.05265745218295162</v>
+      </c>
+      <c r="N21" t="n">
         <v>21</v>
       </c>
-      <c r="J21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.02284266511307674</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.02284266511307674</v>
-      </c>
-      <c r="N21" t="n">
-        <v>19</v>
-      </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03207169423518277</v>
+        <v>0.08066250269851556</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00922902912210603</v>
+        <v>0.03331932575837135</v>
       </c>
       <c r="R21" t="n">
-        <v>0.332311030606977</v>
+        <v>0.1657462411662262</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06656529807918833</v>
+        <v>0.06229498156169856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0024375</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.3061858332329958</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01544371582653997</v>
+        <v>0.02490332389211732</v>
       </c>
       <c r="E22" t="n">
-        <v>9.647664046763547</v>
+        <v>11.49516245074128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004627443257824018</v>
+        <v>0.005496946367510235</v>
       </c>
       <c r="G22" t="n">
-        <v>5.421512772371241</v>
+        <v>4.235355581473429</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.007146783947223749</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.05979185332080959</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.05264506937358584</v>
+      </c>
+      <c r="N22" t="n">
         <v>15</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.02156379232626803</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.02156379232626803</v>
-      </c>
-      <c r="N22" t="n">
-        <v>22</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03139039721191933</v>
+        <v>0.087650596940874</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.009826604885651301</v>
+        <v>0.02785874362006441</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9902690176332164</v>
+        <v>0.1988918247293477</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06241587980812227</v>
+        <v>0.05864192891670466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0.004749999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0.2053348339155802</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01566705092622845</v>
+        <v>0.04238497253505129</v>
       </c>
       <c r="E23" t="n">
-        <v>12.58027534390632</v>
+        <v>12.88990346201422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004106593427656018</v>
+        <v>0.01983096629273167</v>
       </c>
       <c r="G23" t="n">
-        <v>4.02006244095662</v>
+        <v>13.02474715234642</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.01392706615356423</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01913664261418357</v>
+        <v>0.2157070759855332</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01913664261418357</v>
+        <v>0.2296341421390975</v>
       </c>
       <c r="N23" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03184434091104758</v>
+        <v>0.1491796099233055</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01270769829686401</v>
+        <v>0.06652746606222776</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2492082840782137</v>
+        <v>0.9376223602493271</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05875738711070114</v>
+        <v>0.05803953767969258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0.015125</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.9334930182409764</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01099136044148746</v>
+        <v>0.02527827963189392</v>
       </c>
       <c r="E24" t="n">
-        <v>8.734666021736937</v>
+        <v>6.916743158108887</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003842313497994059</v>
+        <v>0.006812524723408325</v>
       </c>
       <c r="G24" t="n">
-        <v>8.301969950373712</v>
+        <v>4.260309284134613</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
         <v>17</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.04434671064687557</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01790510346789677</v>
+        <v>0.07410177428944345</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01790510346789677</v>
+        <v>0.118448484936319</v>
       </c>
       <c r="N24" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02234068368214515</v>
+        <v>0.08897030408359116</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004435580214248381</v>
+        <v>0.01486852979414771</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2497230833081593</v>
+        <v>0.4963102977751936</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05550034780722263</v>
+        <v>0.05519236378497862</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.002333333333333337</v>
+        <v>-0.0003124999999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4999989285737246</v>
+        <v>-0.01979207506136931</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01565409790093289</v>
+        <v>0.01429847266429914</v>
       </c>
       <c r="E25" t="n">
-        <v>11.97849404563038</v>
+        <v>7.121032482928838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00497832095027549</v>
+        <v>0.003459102812152207</v>
       </c>
       <c r="G25" t="n">
-        <v>9.232117123625114</v>
+        <v>3.758314861478032</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" t="n">
         <v>20</v>
       </c>
-      <c r="J25" t="n">
-        <v>17</v>
-      </c>
       <c r="K25" t="n">
-        <v>0.003492142678972319</v>
+        <v>-0.0009162543522081717</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02319887530198054</v>
+        <v>0.03762564779388302</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01970673262300822</v>
+        <v>0.03854190214609119</v>
       </c>
       <c r="N25" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03181801301083945</v>
+        <v>0.05032539711557492</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.008619137708858915</v>
+        <v>0.0126997493216919</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4978544619168843</v>
+        <v>0.4968450959150832</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05549479882431121</v>
+        <v>0.04753181112318399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.0095625</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-0.3558657901265576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01371581699208163</v>
+        <v>0.03057069183426242</v>
       </c>
       <c r="E26" t="n">
-        <v>5.245949758146327</v>
+        <v>17.17425346220075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003808900401021499</v>
+        <v>0.01026608412823188</v>
       </c>
       <c r="G26" t="n">
-        <v>6.627798919623221</v>
+        <v>11.18283853927186</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.02803738317757009</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01774939910936671</v>
+        <v>0.1116671248608811</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01774939910936671</v>
+        <v>0.1397045080384512</v>
       </c>
       <c r="N26" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02787832593549441</v>
+        <v>0.1075976604479196</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0101289268261277</v>
+        <v>0.004069464412961438</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9899726395738876</v>
+        <v>0.199837353800066</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05258245752501248</v>
+        <v>0.04516772116976184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-0.009562499999999998</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0.7621845055202635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01347817046274255</v>
+        <v>0.03660168551420131</v>
       </c>
       <c r="E27" t="n">
-        <v>3.605620336865818</v>
+        <v>8.198382593968704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003354555502969343</v>
+        <v>0.01101410939534236</v>
       </c>
       <c r="G27" t="n">
-        <v>2.367054707099637</v>
+        <v>6.421673791394126</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.02803738317757009</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01563216104069222</v>
+        <v>0.1198036090215565</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01563216104069222</v>
+        <v>0.1478409921991266</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02739529328740799</v>
+        <v>0.1288245536322711</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01176313224671577</v>
+        <v>0.009020944610714607</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9883736302778748</v>
+        <v>0.4977548903522102</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04996095011909962</v>
+        <v>0.04515112783915228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2267,58 +2267,58 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.014011124817431</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39104699364716</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003230328418498385</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.603320920002323</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01505326533056111</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01505326533056111</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02847855906860962</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01342529373804852</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2491637259475718</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04758493768130215</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2328,174 +2328,174 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005997942033439051</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.594102069404554</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00299276821438946</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.002666499398506</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01394623956687847</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01394623956687847</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01219122295426883</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.001755016612609635</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9982480580745737</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04542574916452939</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0.0128125</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.4547924317186107</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.03703873078730526</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.167771707181693</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.01012487321692538</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.919666840914159</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.03756642844053509</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.1101311335064738</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.1476975619470088</v>
       </c>
       <c r="N30" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.1303627932360966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.02023165972962283</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>0.3311004295907295</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04141181565797989</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-0.011625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0.5407019921582539</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.03893874519627864</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>7.7477243238496</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.01669026240065289</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.526627354845655</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.03408466190214404</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.1815447440498978</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.2156294059520418</v>
       </c>
       <c r="N31" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.1370501494245407</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.04449459462535707</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0.9574008378269143</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03965794325022695</v>
       </c>
     </row>
   </sheetData>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2145932027079985</v>
+        <v>0.09193470451595973</v>
       </c>
       <c r="D2" t="n">
-        <v>60.23457818561945</v>
+        <v>17.09549486154912</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01362486076127447</v>
+        <v>0.009749416879446455</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9957009372830951</v>
+        <v>0.9578419858914745</v>
       </c>
     </row>
     <row r="7">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-14 08:30:25</t>
+          <t>2025-10-28 09:58:27</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
+++ b/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9578419858914745</v>
+        <v>0.9560145625955623</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.245726854437696</v>
+        <v>-0.01572580645161291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1720339479864393</v>
+        <v>0.172297919097027</v>
       </c>
       <c r="E2" t="n">
-        <v>11.36666666666667</v>
+        <v>10.06451612903226</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.992464977442418</v>
+        <v>0.9900554306758863</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9562958068004326</v>
+        <v>0.9153225806451615</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4481821424802224</v>
+        <v>0.4908758583350826</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3410625</v>
+        <v>0.3526111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>6.466319442341687</v>
+        <v>10.51938225784093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2841204140220085</v>
+        <v>0.2793718821062397</v>
       </c>
       <c r="E2" t="n">
-        <v>26.15539012034892</v>
+        <v>59.98069986765523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09193470451595973</v>
+        <v>0.1162055010834623</v>
       </c>
       <c r="G2" t="n">
-        <v>17.09549486154912</v>
+        <v>29.15341529598185</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -732,489 +732,489 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0045</v>
+        <v>-0.002166666666666658</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5430901803288345</v>
+        <v>-0.2176629933400089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0243544874700562</v>
+        <v>0.02702578348068606</v>
       </c>
       <c r="E3" t="n">
-        <v>10.89775387970267</v>
+        <v>17.34041578630565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005787835990909705</v>
+        <v>0.008934689658839869</v>
       </c>
       <c r="G3" t="n">
-        <v>4.972755083508855</v>
+        <v>5.909615297257588</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01319406267179769</v>
+        <v>-0.006144635260753087</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06295594271372183</v>
+        <v>0.07688697673979056</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07615000538551953</v>
+        <v>0.08303161200054364</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08571889335684853</v>
+        <v>0.09673766478191488</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02276295064312669</v>
+        <v>0.01985068804212432</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4943733024584296</v>
+        <v>0.3311421998311894</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9292384844079059</v>
+        <v>0.4800695266643601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.004874999999999999</v>
+        <v>0.0009444444444444515</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2788452697411611</v>
+        <v>0.07618181966526509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02258586498489901</v>
+        <v>0.02933748054559918</v>
       </c>
       <c r="E4" t="n">
-        <v>6.680608320246392</v>
+        <v>6.957286549058498</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005479058046754798</v>
+        <v>0.01090791091682033</v>
       </c>
       <c r="G4" t="n">
-        <v>6.259289929768808</v>
+        <v>4.876489213520016</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0142935678944475</v>
+        <v>0.002678430754687274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05959727695435886</v>
+        <v>0.09386742292850611</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07389084484880636</v>
+        <v>0.09118899217381883</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07949398871124222</v>
+        <v>0.1050122880098674</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01989671175688336</v>
+        <v>0.01114486508136134</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1992072860100773</v>
+        <v>0.3320995982612679</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4821854546895901</v>
+        <v>0.4781968553499732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.250000000000006e-05</v>
+        <v>-0.003499999999999994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002284831768428246</v>
+        <v>-0.2663042423118502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03137848373685647</v>
+        <v>0.02845018501781858</v>
       </c>
       <c r="E5" t="n">
-        <v>7.055767295343712</v>
+        <v>30.83106024687942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009418942933637525</v>
+        <v>0.0076173828097572</v>
       </c>
       <c r="G5" t="n">
-        <v>3.895402890299428</v>
+        <v>9.974630755539506</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001832508704416348</v>
+        <v>-0.009925949267370395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1024525284899612</v>
+        <v>0.06555096564908892</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1022692776195195</v>
+        <v>0.07547691491645932</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1104407926648517</v>
+        <v>0.1018362506753615</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.007988264174890541</v>
+        <v>0.03628528502627262</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4980108787692111</v>
+        <v>0.1985590456865438</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3223446807839116</v>
+        <v>0.3251528226890181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00275</v>
+        <v>-0.008888888888888889</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2192229596114451</v>
+        <v>-1.353695914525562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.032848674595391</v>
+        <v>0.02295251014575471</v>
       </c>
       <c r="E6" t="n">
-        <v>5.923150402989839</v>
+        <v>10.71773747619617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008141369657061484</v>
+        <v>0.005189951014189562</v>
       </c>
       <c r="G6" t="n">
-        <v>4.804626610091672</v>
+        <v>3.304934995572531</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.008063038299431922</v>
+        <v>-0.02520876004411533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08855599960783204</v>
+        <v>0.04466183584942321</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09661903790726396</v>
+        <v>0.06987059589353854</v>
       </c>
       <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
         <v>7</v>
       </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
       <c r="P6" t="n">
-        <v>0.1156153270734234</v>
+        <v>0.08215755276698287</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02705932746559139</v>
+        <v>0.03749571691755967</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2483201558963237</v>
+        <v>0.1244168625676739</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2441037330410017</v>
+        <v>0.2457080578947622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003125000000000003</v>
+        <v>-0.006388888888888886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01687513459035719</v>
+        <v>-0.3743325557400668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03338127440148256</v>
+        <v>0.02710155810678384</v>
       </c>
       <c r="E7" t="n">
-        <v>9.568469296606921</v>
+        <v>8.539799233740172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009038458066697914</v>
+        <v>0.008192170228146398</v>
       </c>
       <c r="G7" t="n">
-        <v>7.300668655657923</v>
+        <v>4.962863857453245</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0009162543522081738</v>
+        <v>-0.01811879628170789</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09831388608127686</v>
+        <v>0.07049726692596538</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09739763172906869</v>
+        <v>0.08861606320767326</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1174898837043676</v>
+        <v>0.09700889689563549</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01917599762309076</v>
+        <v>0.02651162996967012</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3312161996476094</v>
+        <v>0.493458801425663</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1961785350578573</v>
+        <v>0.2445815367695499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.00525</v>
+        <v>0.0006111111111111224</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3360696946832617</v>
+        <v>0.06713802987050758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009818360777220226</v>
+        <v>0.0373513440410417</v>
       </c>
       <c r="E8" t="n">
-        <v>2.999700668330409</v>
+        <v>14.96115855048012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004399633563212215</v>
+        <v>0.0176017432181797</v>
       </c>
       <c r="G8" t="n">
-        <v>1.800246040458896</v>
+        <v>5.045815706388192</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01539307311709731</v>
+        <v>0.001733102253032961</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04785606900437087</v>
+        <v>0.1514708258564937</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06324914212146818</v>
+        <v>0.1497377236034607</v>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03455704093286192</v>
+        <v>0.1336975781508238</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01329902807150894</v>
+        <v>0.01777324770566993</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2491715650903105</v>
+        <v>0.9825371243096283</v>
       </c>
       <c r="S8" t="n">
-        <v>0.164928073473509</v>
+        <v>0.2409790850906214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.003812499999999999</v>
+        <v>-0.009277777777777772</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1547087011158031</v>
+        <v>-2.651788451328006</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02773975377793723</v>
+        <v>0.01757180964066043</v>
       </c>
       <c r="E9" t="n">
-        <v>7.410413158226796</v>
+        <v>5.841636753349751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008583662675211629</v>
+        <v>0.003964458220890353</v>
       </c>
       <c r="G9" t="n">
-        <v>3.43757825500581</v>
+        <v>7.772990384854322</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01117830309693971</v>
+        <v>-0.02631164329604536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09336694690438166</v>
+        <v>0.03411592552785398</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1045452500013214</v>
+        <v>0.06042756882389934</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09763379331056603</v>
+        <v>0.06289755972642305</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004266846406184369</v>
+        <v>0.02878163419856907</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3328599126260163</v>
+        <v>0.330165763258996</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1638123658760304</v>
+        <v>0.1976117603502052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.005375</v>
+        <v>-0.008944444444444441</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.509026771033833</v>
+        <v>-1.052848696180747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01591535762377758</v>
+        <v>0.02329616854429484</v>
       </c>
       <c r="E10" t="n">
-        <v>8.733322437618732</v>
+        <v>6.058791712712654</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003747998563863297</v>
+        <v>0.006381618738604411</v>
       </c>
       <c r="G10" t="n">
-        <v>7.56113216333349</v>
+        <v>3.372780895222406</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01575957485798057</v>
+        <v>-0.02536631479439104</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04076804927580586</v>
+        <v>0.05491666641513763</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05652762413378643</v>
+        <v>0.08028298120952868</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05601624113691719</v>
+        <v>0.0833876636713059</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01524819186111134</v>
+        <v>0.02847099725616827</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4962167955483862</v>
+        <v>0.3301996290887422</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1417127592018395</v>
+        <v>0.1968394287677883</v>
       </c>
     </row>
     <row r="11">
@@ -1224,973 +1224,973 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0046875</v>
+        <v>-0.008222222222222209</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1946967784789797</v>
+        <v>-0.619327718691789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02045946637865043</v>
+        <v>0.016913263045152</v>
       </c>
       <c r="E11" t="n">
-        <v>7.531549291186244</v>
+        <v>6.418934318915983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004873115869272309</v>
+        <v>0.004526971573972498</v>
       </c>
       <c r="G11" t="n">
-        <v>3.57411826217229</v>
+        <v>3.022255363309371</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01374381528312259</v>
+        <v>-0.02331810304080664</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05300627108043125</v>
+        <v>0.03895660301590277</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06675008636355384</v>
+        <v>0.06227470605670941</v>
       </c>
       <c r="N11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07200984290085398</v>
+        <v>0.06054031965436026</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01900357182042273</v>
+        <v>0.02158371663845749</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3312351165576833</v>
+        <v>0.3309522733040507</v>
       </c>
       <c r="S11" t="n">
-        <v>0.141507763509235</v>
+        <v>0.1649545836319357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0009375000000000008</v>
+        <v>-0.01061111111111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06127295653522916</v>
+        <v>-1.242934031306086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02269816803763755</v>
+        <v>0.02258231324755377</v>
       </c>
       <c r="E12" t="n">
-        <v>12.30658373432267</v>
+        <v>11.31324868385509</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005592694228626585</v>
+        <v>0.005840915396796575</v>
       </c>
       <c r="G12" t="n">
-        <v>4.147140746937479</v>
+        <v>5.712286934604223</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.002748763056624521</v>
+        <v>-0.03009295730266267</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06083333011263121</v>
+        <v>0.05026367377049952</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06358209316925573</v>
+        <v>0.0803566310731622</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07988925440563134</v>
+        <v>0.08083244840998764</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01905592429300013</v>
+        <v>0.03056877463948812</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1424693022517449</v>
+        <v>0.32997106297941</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1240143633990048</v>
+        <v>0.1644640373378072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.006812499999999999</v>
+        <v>-0.002222222222222216</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4388029706371854</v>
+        <v>-0.1938004642306662</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02424060384488336</v>
+        <v>0.02881548255094342</v>
       </c>
       <c r="E13" t="n">
-        <v>6.908242225457221</v>
+        <v>9.981629840128315</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005970725748455458</v>
+        <v>0.01214830420351297</v>
       </c>
       <c r="G13" t="n">
-        <v>3.435604662504538</v>
+        <v>5.412956713424968</v>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01997434487813817</v>
+        <v>-0.006302190011028814</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06494528676511871</v>
+        <v>0.1045415586202558</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08491963164325687</v>
+        <v>0.1108437486312847</v>
       </c>
       <c r="N13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>0.085318064625253</v>
+        <v>0.1031438179594088</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02037277786013429</v>
+        <v>0.001397740660846997</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2487331536784147</v>
+        <v>0.1999441059986298</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1100725202363868</v>
+        <v>0.1636435230771497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0040625</v>
+        <v>-0.004166666666666657</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.442370912272213</v>
+        <v>-0.3256867649680715</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02328677368059327</v>
+        <v>0.02178696654992521</v>
       </c>
       <c r="E14" t="n">
-        <v>16.29727354382676</v>
+        <v>6.924872853447143</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004754734747356259</v>
+        <v>0.005687403637849357</v>
       </c>
       <c r="G14" t="n">
-        <v>9.03218750723191</v>
+        <v>3.27773383347875</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01191130657870625</v>
+        <v>-0.01181660627067904</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05171860585608173</v>
+        <v>0.04894263683579398</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06362991243478798</v>
+        <v>0.06075924310647302</v>
       </c>
       <c r="N14" t="n">
         <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08196093110996744</v>
+        <v>0.07798553807802336</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0302423252538857</v>
+        <v>0.02904290124222938</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1987975797864824</v>
+        <v>0.4928432017813796</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0993677240420361</v>
+        <v>0.124057792800994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0026875</v>
+        <v>-0.000722222222222213</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1525186273142846</v>
+        <v>-0.04372469439625898</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02291408553182304</v>
+        <v>0.02072093139174711</v>
       </c>
       <c r="E15" t="n">
-        <v>8.403941801207999</v>
+        <v>8.878666474617582</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005337434167887422</v>
+        <v>0.006681175002172263</v>
       </c>
       <c r="G15" t="n">
-        <v>4.773693499574602</v>
+        <v>5.436198170526263</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.002048211753584345</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.05749448124124213</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.05954269299482647</v>
+      </c>
+      <c r="N15" t="n">
         <v>21</v>
       </c>
-      <c r="J15" t="n">
-        <v>9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.007879787428990289</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.05805679363401719</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.06593658106300748</v>
-      </c>
-      <c r="N15" t="n">
-        <v>22</v>
-      </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08064920505869763</v>
+        <v>0.07416970969135449</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02259241142468044</v>
+        <v>0.01667522845011236</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4944149866040566</v>
+        <v>0.1993352079737773</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09934495334306939</v>
+        <v>0.1103808474541697</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.011625</v>
+        <v>-0.01116666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.602974844520464</v>
+        <v>-3.886993767052993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02479079587748948</v>
+        <v>0.02245543750990791</v>
       </c>
       <c r="E16" t="n">
-        <v>11.68938415404302</v>
+        <v>8.428571508304156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005581946193777552</v>
+        <v>0.006313794611525377</v>
       </c>
       <c r="G16" t="n">
-        <v>9.547234773920719</v>
+        <v>3.502052000590882</v>
       </c>
       <c r="H16" t="n">
         <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.03408466190214404</v>
+        <v>-0.03166850480541989</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06071642067233201</v>
+        <v>0.05433300964805979</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09480108257447604</v>
+        <v>0.08600151445347967</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0872545394628671</v>
+        <v>0.08037830199879795</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02653811879053509</v>
+        <v>0.02604529235073816</v>
       </c>
       <c r="R16" t="n">
-        <v>0.330410508888492</v>
+        <v>0.9746158453774817</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0990608920195751</v>
+        <v>0.1100594137486394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006</v>
+        <v>-0.007833333333333331</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3332327242674511</v>
+        <v>-0.4335607296839889</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02718323134321348</v>
+        <v>0.0156050822544462</v>
       </c>
       <c r="E17" t="n">
-        <v>14.13153831108279</v>
+        <v>7.340100724884488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007345332243363064</v>
+        <v>0.003727441476875675</v>
       </c>
       <c r="G17" t="n">
-        <v>12.32406707803286</v>
+        <v>6.307098183988227</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01759208356239692</v>
+        <v>-0.02221521978887663</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07989727363607206</v>
+        <v>0.03207629107161213</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09748935719846899</v>
+        <v>0.05429151086048876</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09567503777151264</v>
+        <v>0.0558577410754311</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01577776413544058</v>
+        <v>0.02378145000381897</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4960864326375265</v>
+        <v>0.97677097001149</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08266177968612651</v>
+        <v>0.09946001654316623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005500000000000001</v>
+        <v>0.001055555555555558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3700351985437769</v>
+        <v>0.1251353295500807</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02670444262967408</v>
+        <v>0.03144949683292424</v>
       </c>
       <c r="E18" t="n">
-        <v>10.57618957695553</v>
+        <v>8.500330762155901</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00613733764322238</v>
+        <v>0.007847236826900774</v>
       </c>
       <c r="G18" t="n">
-        <v>11.41647295418205</v>
+        <v>3.805202431583614</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01612607659886385</v>
+        <v>0.002993540255238702</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06675757186076502</v>
+        <v>0.06752896165616681</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05063149526190117</v>
+        <v>0.06453542140092811</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>0.09398987651624882</v>
+        <v>0.1125721622226986</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0272323046554838</v>
+        <v>0.04504320056653179</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4932833783792451</v>
+        <v>0.1243001404802376</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07662464459003804</v>
+        <v>0.09935878390110585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009375</v>
+        <v>-0.01655555555555555</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.440928405884153</v>
+        <v>-1.485437942791163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02841920133485335</v>
+        <v>0.02067323945322594</v>
       </c>
       <c r="E19" t="n">
-        <v>16.52396618456245</v>
+        <v>9.038236680730083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.007298940134744791</v>
+        <v>0.005580211216376663</v>
       </c>
       <c r="G19" t="n">
-        <v>5.894825123976821</v>
+        <v>4.717373468788008</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02748763056624519</v>
+        <v>-0.0469513155821648</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07939265344000433</v>
+        <v>0.04802019839292108</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1068802840062495</v>
+        <v>0.09497151397508588</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1000252003456955</v>
+        <v>0.07399899838654594</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02063254690569115</v>
+        <v>0.02597879999362487</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3310564871666999</v>
+        <v>0.9746790089680348</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07629580634991044</v>
+        <v>0.09905921959419488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0006875000000000006</v>
+        <v>0.01766666666666668</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04318074591340842</v>
+        <v>1.192709801339423</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02422779423339019</v>
+        <v>0.01731529424496913</v>
       </c>
       <c r="E20" t="n">
-        <v>9.625376566739666</v>
+        <v>8.511961664426785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00501123107358564</v>
+        <v>0.008787139435179314</v>
       </c>
       <c r="G20" t="n">
-        <v>3.620835980390611</v>
+        <v>7.933051033676978</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.002015759574857983</v>
+        <v>0.05010241058767926</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05450858954700505</v>
+        <v>0.07561724146663357</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05652434912186303</v>
+        <v>0.02551483087895431</v>
       </c>
       <c r="N20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08527297947522156</v>
+        <v>0.06197937356625052</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03076438992821651</v>
+        <v>0.01363786790038304</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2480919010048635</v>
+        <v>0.06660610897895909</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07114134156943795</v>
+        <v>0.09069871251719862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0018125</v>
+        <v>-0.00722222222222222</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1135517969148984</v>
+        <v>-0.4544507279715671</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02291786366275362</v>
+        <v>0.03541803347284555</v>
       </c>
       <c r="E21" t="n">
-        <v>7.642341047142441</v>
+        <v>14.50868848732271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004352480982838957</v>
+        <v>0.009850963680275604</v>
       </c>
       <c r="G21" t="n">
-        <v>3.410038065490817</v>
+        <v>8.951103579845201</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.005314275242807405</v>
+        <v>-0.0204821175358437</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04734317694014421</v>
+        <v>0.08477192205556902</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05265745218295162</v>
+        <v>0.1052540395914127</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08066250269851556</v>
+        <v>0.126777373606184</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03331932575837135</v>
+        <v>0.042005451550615</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1657462411662262</v>
+        <v>0.2474019424235004</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06229498156169856</v>
+        <v>0.09004746730105349</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0024375</v>
+        <v>-0.002333333333333331</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3061858332329958</v>
+        <v>-0.3789163364174752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02490332389211732</v>
+        <v>0.01910108900999158</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49516245074128</v>
+        <v>9.112477847933317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005496946367510235</v>
+        <v>0.00528919332231497</v>
       </c>
       <c r="G22" t="n">
-        <v>4.235355581473429</v>
+        <v>3.186981937414881</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K22" t="n">
-        <v>0.007146783947223749</v>
+        <v>-0.006617299511580269</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05979185332080959</v>
+        <v>0.04551586003244471</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05264506937358584</v>
+        <v>0.05213315954402498</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0.087650596940874</v>
+        <v>0.06837155144599628</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02785874362006441</v>
+        <v>0.02285569141355157</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1988918247293477</v>
+        <v>0.4943506371931108</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05864192891670466</v>
+        <v>0.08297286353894164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004749999999999999</v>
+        <v>-0.006388888888888883</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2053348339155802</v>
+        <v>-0.4205375924602108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04238497253505129</v>
+        <v>0.0191958840192241</v>
       </c>
       <c r="E23" t="n">
-        <v>12.88990346201422</v>
+        <v>11.3206342273658</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01983096629273167</v>
+        <v>0.004502298060410284</v>
       </c>
       <c r="G23" t="n">
-        <v>13.02474715234642</v>
+        <v>5.727239687826985</v>
       </c>
       <c r="H23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01392706615356423</v>
+        <v>-0.01811879628170788</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2157070759855332</v>
+        <v>0.03874427646223564</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2296341421390975</v>
+        <v>0.05686307274394352</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1491796099233055</v>
+        <v>0.0687108662278485</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06652746606222776</v>
+        <v>0.02996658976561286</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9376223602493271</v>
+        <v>0.248141014999869</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05803953767969258</v>
+        <v>0.08294031324454748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.015125</v>
+        <v>-0.01183333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9334930182409764</v>
+        <v>-0.7193889188401672</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02527827963189392</v>
+        <v>0.02478262900420196</v>
       </c>
       <c r="E24" t="n">
-        <v>6.916743158108887</v>
+        <v>3.88529431575335</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006812524723408325</v>
+        <v>0.007234166400374159</v>
       </c>
       <c r="G24" t="n">
-        <v>4.260309284134613</v>
+        <v>2.109445376613043</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.04434671064687557</v>
+        <v>-0.03355916180872853</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07410177428944345</v>
+        <v>0.06225321807423184</v>
       </c>
       <c r="M24" t="n">
-        <v>0.118448484936319</v>
+        <v>0.09581237988296036</v>
       </c>
       <c r="N24" t="n">
         <v>14</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08897030408359116</v>
+        <v>0.08870838689048027</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01486852979414771</v>
+        <v>0.02645516881624844</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4963102977751936</v>
+        <v>0.3304195648769959</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05519236378497862</v>
+        <v>0.07636028762416777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0003124999999999996</v>
+        <v>-0.0105</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01979207506136931</v>
+        <v>-2.261563328522357</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01429847266429914</v>
+        <v>0.02364634485444894</v>
       </c>
       <c r="E25" t="n">
-        <v>7.121032482928838</v>
+        <v>5.773978579743314</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003459102812152207</v>
+        <v>0.00901796592649293</v>
       </c>
       <c r="G25" t="n">
-        <v>3.758314861478032</v>
+        <v>3.117128708149365</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0009162543522081717</v>
+        <v>-0.02977784780211123</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03762564779388302</v>
+        <v>0.07760360604629173</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03854190214609119</v>
+        <v>0.107381453848403</v>
       </c>
       <c r="N25" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05032539711557492</v>
+        <v>0.08464110516840308</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0126997493216919</v>
+        <v>0.007037499122111351</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4968450959150832</v>
+        <v>0.1664714096001804</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04753181112318399</v>
+        <v>0.06619280800282325</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.0095625</v>
+        <v>-0.00699999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3558657901265576</v>
+        <v>-0.2974030325919644</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03057069183426242</v>
+        <v>0.0402381678146179</v>
       </c>
       <c r="E26" t="n">
-        <v>17.17425346220075</v>
+        <v>5.213322133233581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01026608412823188</v>
+        <v>0.02592120245898895</v>
       </c>
       <c r="G26" t="n">
-        <v>11.18283853927186</v>
+        <v>4.005331800678615</v>
       </c>
       <c r="H26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02803738317757009</v>
+        <v>-0.01985189853474079</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1116671248608811</v>
+        <v>0.2230634713271584</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1397045080384512</v>
+        <v>0.2429153698618992</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1075976604479196</v>
+        <v>0.1440308434451399</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.004069464412961438</v>
+        <v>0.07903262788201845</v>
       </c>
       <c r="R26" t="n">
-        <v>0.199837353800066</v>
+        <v>0.4809929322844414</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04516772116976184</v>
+        <v>0.06156530260912776</v>
       </c>
     </row>
     <row r="27">
@@ -2200,58 +2200,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.009562499999999998</v>
+        <v>-0.01083333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7621845055202635</v>
+        <v>-0.5712849475107106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03660168551420131</v>
+        <v>0.02988419135011744</v>
       </c>
       <c r="E27" t="n">
-        <v>8.198382593968704</v>
+        <v>5.821288989571026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01101410939534236</v>
+        <v>0.009369679914198506</v>
       </c>
       <c r="G27" t="n">
-        <v>6.421673791394126</v>
+        <v>3.303245747338121</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02803738317757009</v>
+        <v>-0.03072317630376555</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1198036090215565</v>
+        <v>0.08063026127712251</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1478409921991266</v>
+        <v>0.1113534375808881</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1288245536322711</v>
+        <v>0.1069692165325108</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.009020944610714607</v>
+        <v>0.0263389552553883</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4977548903522102</v>
+        <v>0.4935008515759229</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04515112783915228</v>
+        <v>0.05521398516385912</v>
       </c>
     </row>
     <row r="28">
@@ -2279,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J28" t="n">
         <v>23</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2318,184 +2318,245 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0.01372222222222222</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0.7879434775023439</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.03444102847325109</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>13.6608101120914</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.01338915955362826</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.282434202494654</v>
       </c>
       <c r="H29" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.03891602331810303</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1152196705731837</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1541356938912867</v>
+      </c>
+      <c r="N29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" t="n">
-        <v>29</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>29</v>
-      </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.1232802249589092</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.008060554385725491</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0.4979929503699178</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03823487083282075</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0128125</v>
+        <v>0.00105555555555556</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4547924317186107</v>
+        <v>0.2643987492202584</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03703873078730526</v>
+        <v>0.005303425310386172</v>
       </c>
       <c r="E30" t="n">
-        <v>6.167771707181693</v>
+        <v>6.891090022669418</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01012487321692538</v>
+        <v>0.001953873930560305</v>
       </c>
       <c r="G30" t="n">
-        <v>3.919666840914159</v>
+        <v>2.098279298434079</v>
       </c>
       <c r="H30" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.03756642844053509</v>
+        <v>0.002993540255238709</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1101311335064738</v>
+        <v>0.01681395383474122</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1476975619470088</v>
+        <v>0.01382041357950251</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1303627932360966</v>
+        <v>0.01898338970408404</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02023165972962283</v>
+        <v>0.002169435869342824</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3311004295907295</v>
+        <v>0.9978352603944053</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04141181565797989</v>
+        <v>0.03701808869275346</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.011625</v>
+        <v>0.001444444444444445</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5407019921582539</v>
+        <v>0.9869397599316886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03893874519627864</v>
+        <v>0.01473704154005381</v>
       </c>
       <c r="E31" t="n">
-        <v>7.7477243238496</v>
+        <v>5.824738484765944</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01669026240065289</v>
+        <v>0.003115111300359899</v>
       </c>
       <c r="G31" t="n">
-        <v>6.526627354845655</v>
+        <v>5.222113292651364</v>
       </c>
       <c r="H31" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.03408466190214404</v>
+        <v>0.004096423507168743</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1815447440498978</v>
+        <v>0.02680691767012418</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2156294059520418</v>
+        <v>0.02271049416295544</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1370501494245407</v>
+        <v>0.05275062554237153</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04449459462535707</v>
+        <v>0.02594370787224735</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9574008378269143</v>
+        <v>0.974712347594535</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03965794325022695</v>
+        <v>0.03700591027743147</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_thd_power_frac</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.01272222222222221</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5534014497129476</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0424759364411875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.335603665728948</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02109434703352628</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.320462098267948</v>
+      </c>
+      <c r="H32" t="n">
+        <v>29</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>26</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.03608003781314004</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1815262344454389</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.217606272258579</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1520408429114378</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.02948539153400118</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4927357467915267</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.03674092387100351</v>
       </c>
     </row>
   </sheetData>
@@ -2561,16 +2622,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09193470451595973</v>
+        <v>0.1162055010834623</v>
       </c>
       <c r="D2" t="n">
-        <v>17.09549486154912</v>
+        <v>29.15341529598185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009749416879446455</v>
+        <v>0.01170561228552199</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2720,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9578419858914745</v>
+        <v>0.9560145625955623</v>
       </c>
     </row>
     <row r="7">
@@ -2670,7 +2731,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-28 09:58:27</t>
+          <t>2025-10-29 14:38:56</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
+++ b/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9560145625955623</v>
+        <v>0.981400605961583</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01572580645161291</v>
+        <v>0.3475935828877005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172297919097027</v>
+        <v>0.2170360612814962</v>
       </c>
       <c r="E2" t="n">
-        <v>10.06451612903226</v>
+        <v>8.727272727272727</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9900554306758863</v>
+        <v>0.9962502712321736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9153225806451615</v>
+        <v>0.9411764705882354</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4908758583350826</v>
+        <v>0.5539355405282612</v>
       </c>
       <c r="L2" t="n">
-        <v>2.32258064516129</v>
+        <v>1.939393939393939</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3526111111111111</v>
+        <v>0.3393333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>10.51938225784093</v>
+        <v>25.3041120646535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2793718821062397</v>
+        <v>0.2672962602298325</v>
       </c>
       <c r="E2" t="n">
-        <v>59.98069986765523</v>
+        <v>41.33987103003806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1162055010834623</v>
+        <v>0.1126198321213277</v>
       </c>
       <c r="G2" t="n">
-        <v>29.15341529598185</v>
+        <v>24.13242841474581</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -732,1002 +732,1002 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.002166666666666658</v>
+        <v>0.1784444444444445</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2176629933400089</v>
+        <v>6.125420244831675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02702578348068606</v>
+        <v>0.1592877819450259</v>
       </c>
       <c r="E3" t="n">
-        <v>17.34041578630565</v>
+        <v>34.05656287300216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008934689658839869</v>
+        <v>0.0639797638192271</v>
       </c>
       <c r="G3" t="n">
-        <v>5.909615297257588</v>
+        <v>22.87962469654637</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.006144635260753087</v>
+        <v>0.5258677144728225</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07688697673979056</v>
+        <v>0.5681038820081029</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08303161200054364</v>
+        <v>0.04223616753528037</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09673766478191488</v>
+        <v>0.5959222243067059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01985068804212432</v>
+        <v>0.02781834229860303</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3311421998311894</v>
+        <v>0.972934573013758</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4800695266643601</v>
+        <v>0.9594754347902146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009444444444444515</v>
+        <v>-0.001333333333333332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07618181966526509</v>
+        <v>-0.4150273864576391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02933748054559918</v>
+        <v>0.01256196065263038</v>
       </c>
       <c r="E4" t="n">
-        <v>6.957286549058498</v>
+        <v>19.82055137052322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01090791091682033</v>
+        <v>0.003185293692923865</v>
       </c>
       <c r="G4" t="n">
-        <v>4.876489213520016</v>
+        <v>6.60474318745185</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002678430754687274</v>
+        <v>-0.003929273084479368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09386742292850611</v>
+        <v>0.02828359475347364</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09118899217381883</v>
+        <v>0.032212867837953</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1050122880098674</v>
+        <v>0.04699639509295447</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01114486508136134</v>
+        <v>0.01871280033948083</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3320995982612679</v>
+        <v>0.4953651652834584</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4781968553499732</v>
+        <v>0.4920744356194772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003499999999999994</v>
+        <v>-0.0004999999999999997</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2663042423118502</v>
+        <v>-0.134104130214164</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02845018501781858</v>
+        <v>0.01453626273838108</v>
       </c>
       <c r="E5" t="n">
-        <v>30.83106024687942</v>
+        <v>7.858411360567932</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0076173828097572</v>
+        <v>0.004124191490143841</v>
       </c>
       <c r="G5" t="n">
-        <v>9.974630755539506</v>
+        <v>5.001103530049293</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.001473477406679763</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03662047272189825</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03809395012857801</v>
+      </c>
+      <c r="N5" t="n">
+        <v>27</v>
+      </c>
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>-0.009925949267370395</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.06555096564908892</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.07547691491645932</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
       <c r="P5" t="n">
-        <v>0.1018362506753615</v>
+        <v>0.05438258928831323</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03628528502627262</v>
+        <v>0.01776211656641498</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1985590456865438</v>
+        <v>0.3313713809681565</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3251528226890181</v>
+        <v>0.490654515674762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.008888888888888889</v>
+        <v>0.001166666666666677</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.353695914525562</v>
+        <v>0.1974287848950839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02295251014575471</v>
+        <v>0.01807449432035795</v>
       </c>
       <c r="E6" t="n">
-        <v>10.71773747619617</v>
+        <v>12.15579895050785</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005189951014189562</v>
+        <v>0.005662808409921604</v>
       </c>
       <c r="G6" t="n">
-        <v>3.304934995572531</v>
+        <v>14.69226856415366</v>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02520876004411533</v>
+        <v>0.003438113948919479</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04466183584942321</v>
+        <v>0.05028251510640633</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06987059589353854</v>
+        <v>0.04684440115748685</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08215755276698287</v>
+        <v>0.06761970520955565</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03749571691755967</v>
+        <v>0.01733719010314932</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1244168625676739</v>
+        <v>0.9829582656843681</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2457080578947622</v>
+        <v>0.4885569217838453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.006388888888888886</v>
+        <v>0.004055555555555562</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3743325557400668</v>
+        <v>0.4172037359296975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02710155810678384</v>
+        <v>0.02362226621312531</v>
       </c>
       <c r="E7" t="n">
-        <v>8.539799233740172</v>
+        <v>17.56895205248186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008192170228146398</v>
+        <v>0.007265211738333608</v>
       </c>
       <c r="G7" t="n">
-        <v>4.962863857453245</v>
+        <v>5.859732201009711</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01811879628170789</v>
+        <v>0.01195153896529144</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07049726692596538</v>
+        <v>0.06451094448894795</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08861606320767326</v>
+        <v>0.05255940552365651</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09700889689563549</v>
+        <v>0.08837484741767015</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02651162996967012</v>
+        <v>0.0238639029287222</v>
       </c>
       <c r="R7" t="n">
-        <v>0.493458801425663</v>
+        <v>0.3307027141768727</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2445815367695499</v>
+        <v>0.4871966177002689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006111111111111224</v>
+        <v>0.01083333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06713802987050758</v>
+        <v>1.145670958845541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0373513440410417</v>
+        <v>0.02459625559247878</v>
       </c>
       <c r="E8" t="n">
-        <v>14.96115855048012</v>
+        <v>12.32976302566165</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0176017432181797</v>
+        <v>0.01374953826752102</v>
       </c>
       <c r="G8" t="n">
-        <v>5.045815706388192</v>
+        <v>5.747511084971356</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03192534381139491</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1220880728423424</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.09016272903094744</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.001733102253032961</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1514708258564937</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1497377236034607</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.1336975781508238</v>
+        <v>0.09201870453155567</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01777324770566993</v>
+        <v>0.03006936831078669</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9825371243096283</v>
+        <v>0.2481346866788927</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2409790850906214</v>
+        <v>0.4784316484600342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009277777777777772</v>
+        <v>-0.000333333333333322</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.651788451328006</v>
+        <v>-0.04467912256511192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01757180964066043</v>
+        <v>0.01743044640377552</v>
       </c>
       <c r="E9" t="n">
-        <v>5.841636753349751</v>
+        <v>6.415270957235082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003964458220890353</v>
+        <v>0.004778508957615259</v>
       </c>
       <c r="G9" t="n">
-        <v>7.772990384854322</v>
+        <v>3.366749946494294</v>
       </c>
       <c r="H9" t="n">
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02631164329604536</v>
+        <v>-0.0009823182711198094</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03411592552785398</v>
+        <v>0.04243043936051398</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06042756882389934</v>
+        <v>0.04341275763163379</v>
       </c>
       <c r="N9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06289755972642305</v>
+        <v>0.06521021427231377</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02878163419856907</v>
+        <v>0.02277977491179979</v>
       </c>
       <c r="R9" t="n">
-        <v>0.330165763258996</v>
+        <v>0.4943691905578814</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1976117603502052</v>
+        <v>0.328578500399727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008944444444444441</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.052848696180747</v>
+        <v>2.67053153458052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02329616854429484</v>
+        <v>0.01793933661395488</v>
       </c>
       <c r="E10" t="n">
-        <v>6.058791712712654</v>
+        <v>9.762339874331568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006381618738604411</v>
+        <v>0.01023061180782251</v>
       </c>
       <c r="G10" t="n">
-        <v>3.372780895222406</v>
+        <v>10.50506017671193</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02536631479439104</v>
+        <v>0.1110019646365422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05491666641513763</v>
+        <v>0.09084200904154129</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08028298120952868</v>
+        <v>0.02015995559500094</v>
       </c>
       <c r="N10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0833876636713059</v>
+        <v>0.06711405763226871</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02847099725616827</v>
+        <v>0.02372795140927257</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3301996290887422</v>
+        <v>0.07678293064251177</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1968394287677883</v>
+        <v>0.1991968401097446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008222222222222209</v>
+        <v>-0.0002222222222222204</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.619327718691789</v>
+        <v>-0.03317926529288892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.016913263045152</v>
+        <v>0.01498700960752762</v>
       </c>
       <c r="E11" t="n">
-        <v>6.418934318915983</v>
+        <v>7.272652370890646</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004526971573972498</v>
+        <v>0.003724529715460858</v>
       </c>
       <c r="G11" t="n">
-        <v>3.022255363309371</v>
+        <v>5.009530204742403</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02331810304080664</v>
+        <v>-0.0006548788474132229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03895660301590277</v>
+        <v>0.03307170367159085</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06227470605670941</v>
+        <v>0.03372658251900407</v>
       </c>
       <c r="N11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06054031965436026</v>
+        <v>0.05606890868821421</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02158371663845749</v>
+        <v>0.02299720501662336</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3309522733040507</v>
+        <v>0.4943160561567769</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1649545836319357</v>
+        <v>0.1657350538384046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01061111111111111</v>
+        <v>-0.004499999999999988</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.242934031306086</v>
+        <v>-0.6832574642868769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02258231324755377</v>
+        <v>0.01364590265372789</v>
       </c>
       <c r="E12" t="n">
-        <v>11.31324868385509</v>
+        <v>6.289096040742422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005840915396796575</v>
+        <v>0.003433091605446167</v>
       </c>
       <c r="G12" t="n">
-        <v>5.712286934604223</v>
+        <v>13.03639515979042</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.03009295730266267</v>
+        <v>-0.01326129666011784</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05026367377049952</v>
+        <v>0.03048389915683435</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0803566310731622</v>
+        <v>0.04374519581695219</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08083244840998764</v>
+        <v>0.05105160334826447</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03056877463948812</v>
+        <v>0.02056770419143011</v>
       </c>
       <c r="R12" t="n">
-        <v>0.32997106297941</v>
+        <v>0.9798468008472546</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1644640373378072</v>
+        <v>0.1654603176672849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002222222222222216</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1938004642306662</v>
+        <v>0.8024195328178988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02881548255094342</v>
+        <v>0.01870364631905188</v>
       </c>
       <c r="E13" t="n">
-        <v>9.981629840128315</v>
+        <v>6.444841333640641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01214830420351297</v>
+        <v>0.006348014519313219</v>
       </c>
       <c r="G13" t="n">
-        <v>5.412956713424968</v>
+        <v>2.638740952646527</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
       <c r="K13" t="n">
-        <v>-0.006302190011028814</v>
+        <v>0.01473477406679765</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1045415586202558</v>
+        <v>0.05636675530180484</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1108437486312847</v>
+        <v>0.04163198123500719</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1031438179594088</v>
+        <v>0.06997346802746023</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001397740660846997</v>
+        <v>0.01360671272565538</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1999441059986298</v>
+        <v>0.2491524635010629</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1636435230771497</v>
+        <v>0.142012533836597</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004166666666666657</v>
+        <v>-0.002222222222222214</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3256867649680715</v>
+        <v>-0.274461984214907</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02178696654992521</v>
+        <v>0.01533266727680706</v>
       </c>
       <c r="E14" t="n">
-        <v>6.924872853447143</v>
+        <v>9.580177754308687</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005687403637849357</v>
+        <v>0.004082968308580459</v>
       </c>
       <c r="G14" t="n">
-        <v>3.27773383347875</v>
+        <v>4.390264185746751</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01181660627067904</v>
+        <v>-0.006548788474132259</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04894263683579398</v>
+        <v>0.03625443433605719</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06075924310647302</v>
+        <v>0.04280322281018945</v>
       </c>
       <c r="N14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07798553807802336</v>
+        <v>0.05736207182106995</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02904290124222938</v>
+        <v>0.02110763748501276</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4928432017813796</v>
+        <v>0.4947782005536138</v>
       </c>
       <c r="S14" t="n">
-        <v>0.124057792800994</v>
+        <v>0.1419889166803931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000722222222222213</v>
+        <v>0.0005555555555555607</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04372469439625898</v>
+        <v>0.07216868989882542</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02072093139174711</v>
+        <v>0.02002900293228917</v>
       </c>
       <c r="E15" t="n">
-        <v>8.878666474617582</v>
+        <v>7.938179714903553</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006681175002172263</v>
+        <v>0.006671834941016938</v>
       </c>
       <c r="G15" t="n">
-        <v>5.436198170526263</v>
+        <v>6.382760628751463</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002048211753584345</v>
+        <v>0.001637197118533086</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05749448124124213</v>
+        <v>0.05924209631061456</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05954269299482647</v>
+        <v>0.05760489919208147</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07416970969135449</v>
+        <v>0.07493184870999466</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01667522845011236</v>
+        <v>0.0156897523993801</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1993352079737773</v>
+        <v>0.4961080934254133</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1103808474541697</v>
+        <v>0.1416911281211669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01116666666666667</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.886993767052993</v>
+        <v>0.1174619643449707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02245543750990791</v>
+        <v>0.02525255962800446</v>
       </c>
       <c r="E16" t="n">
-        <v>8.428571508304156</v>
+        <v>11.75954674334078</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006313794611525377</v>
+        <v>0.008946395206243171</v>
       </c>
       <c r="G16" t="n">
-        <v>3.502052000590882</v>
+        <v>4.623846950130789</v>
       </c>
       <c r="H16" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.03166850480541989</v>
+        <v>0.004911591355599213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05433300964805979</v>
+        <v>0.07943889666435512</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08600151445347967</v>
+        <v>0.07452730530875591</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08037830199879795</v>
+        <v>0.09447404765892067</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02604529235073816</v>
+        <v>0.01503515099456555</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9746158453774817</v>
+        <v>0.1994003969845921</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1100594137486394</v>
+        <v>0.123846259005469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.007833333333333331</v>
+        <v>-0.001055555555555547</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4335607296839889</v>
+        <v>-0.2572734531112439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0156050822544462</v>
+        <v>0.01580145480346008</v>
       </c>
       <c r="E17" t="n">
-        <v>7.340100724884488</v>
+        <v>5.117751546326345</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003727441476875675</v>
+        <v>0.005240683561188226</v>
       </c>
       <c r="G17" t="n">
-        <v>6.307098183988227</v>
+        <v>3.757748045398852</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02221521978887663</v>
+        <v>-0.00311067452521281</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03207629107161213</v>
+        <v>0.04653428674571569</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05429151086048876</v>
+        <v>0.0496449612709285</v>
       </c>
       <c r="N17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0558577410754311</v>
+        <v>0.05911588433700241</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02378145000381897</v>
+        <v>0.01258159759128672</v>
       </c>
       <c r="R17" t="n">
-        <v>0.97677097001149</v>
+        <v>0.1994979992905319</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09946001654316623</v>
+        <v>0.110501572634023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001055555555555558</v>
+        <v>0.001888888888888894</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1251353295500807</v>
+        <v>0.3553633587038246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03144949683292424</v>
+        <v>0.01717641486169511</v>
       </c>
       <c r="E18" t="n">
-        <v>8.500330762155901</v>
+        <v>8.078883358882246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007847236826900774</v>
+        <v>0.004524392926353802</v>
       </c>
       <c r="G18" t="n">
-        <v>3.805202431583614</v>
+        <v>4.19468591289799</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
         <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002993540255238702</v>
+        <v>0.005566470203012456</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06752896165616681</v>
+        <v>0.04017403365936099</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06453542140092811</v>
+        <v>0.03460756345634853</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1125721622226986</v>
+        <v>0.06425983980069945</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04504320056653179</v>
+        <v>0.02408580614133846</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1243001404802376</v>
+        <v>0.3306784476714225</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09935878390110585</v>
+        <v>0.09965511791828928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01655555555555555</v>
+        <v>-0.002055555555555554</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.485437942791163</v>
+        <v>-0.3782994732137402</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02067323945322594</v>
+        <v>0.0188913517466896</v>
       </c>
       <c r="E19" t="n">
-        <v>9.038236680730083</v>
+        <v>12.50545048987391</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005580211216376663</v>
+        <v>0.004675972852145564</v>
       </c>
       <c r="G19" t="n">
-        <v>4.717373468788008</v>
+        <v>4.27834596433634</v>
       </c>
       <c r="H19" t="n">
         <v>31</v>
@@ -1739,117 +1739,117 @@
         <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0469513155821648</v>
+        <v>-0.00605762933857236</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04802019839292108</v>
+        <v>0.04151997711298345</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09497151397508588</v>
+        <v>0.04757760645155581</v>
       </c>
       <c r="N19" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07399899838654594</v>
+        <v>0.07067570541557902</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02597879999362487</v>
+        <v>0.02915572830259557</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9746790089680348</v>
+        <v>0.1422645960130806</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09905921959419488</v>
+        <v>0.09952647684531438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01766666666666668</v>
+        <v>0.004055555555555565</v>
       </c>
       <c r="C20" t="n">
-        <v>1.192709801339423</v>
+        <v>0.4316877786119722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01731529424496913</v>
+        <v>0.01635608940312215</v>
       </c>
       <c r="E20" t="n">
-        <v>8.511961664426785</v>
+        <v>9.253635977663791</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008787139435179314</v>
+        <v>0.005510747574628336</v>
       </c>
       <c r="G20" t="n">
-        <v>7.933051033676978</v>
+        <v>6.942729649585555</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
         <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05010241058767926</v>
+        <v>0.01195153896529145</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07561724146663357</v>
+        <v>0.04893230145016993</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02551483087895431</v>
+        <v>0.03698076248487848</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06197937356625052</v>
+        <v>0.06119086510622521</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01363786790038304</v>
+        <v>0.01225856365605529</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06660610897895909</v>
+        <v>0.2492361806036694</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09069871251719862</v>
+        <v>0.09060448881083841</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00722222222222222</v>
+        <v>0.001111111111111125</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4544507279715671</v>
+        <v>0.1087694631837152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03541803347284555</v>
+        <v>0.02262434809018695</v>
       </c>
       <c r="E21" t="n">
-        <v>14.50868848732271</v>
+        <v>5.860700226967705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009850963680275604</v>
+        <v>0.008991632761417156</v>
       </c>
       <c r="G21" t="n">
-        <v>8.951103579845201</v>
+        <v>8.180030484217596</v>
       </c>
       <c r="H21" t="n">
         <v>18</v>
@@ -1861,702 +1861,824 @@
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0204821175358437</v>
+        <v>0.003274394237066183</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08477192205556902</v>
+        <v>0.07984058040266197</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1052540395914127</v>
+        <v>0.07656618616559578</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.126777373606184</v>
+        <v>0.08464146887327786</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.042005451550615</v>
+        <v>0.004800888470615897</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2474019424235004</v>
+        <v>0.3328007535663969</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09004746730105349</v>
+        <v>0.09028068655870801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.002333333333333331</v>
+        <v>0.00244444444444445</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3789163364174752</v>
+        <v>0.5489704084826057</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01910108900999158</v>
+        <v>0.03929771960778704</v>
       </c>
       <c r="E22" t="n">
-        <v>9.112477847933317</v>
+        <v>8.526855221433564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00528919332231497</v>
+        <v>0.02057724004607708</v>
       </c>
       <c r="G22" t="n">
-        <v>3.186981937414881</v>
+        <v>7.864691954711735</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.006617299511580269</v>
+        <v>0.007203667321545528</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04551586003244471</v>
+        <v>0.1827141779425562</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05213315954402498</v>
+        <v>0.1755105106210107</v>
       </c>
       <c r="N22" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06837155144599628</v>
+        <v>0.147019339417608</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02285569141355157</v>
+        <v>0.0356948385249482</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4943506371931108</v>
+        <v>0.9655353708474734</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08297286353894164</v>
+        <v>0.08948137081072201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006388888888888883</v>
+        <v>0.006333333333333345</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4205375924602108</v>
+        <v>0.5895267080230676</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0191958840192241</v>
+        <v>0.01979397390411463</v>
       </c>
       <c r="E23" t="n">
-        <v>11.3206342273658</v>
+        <v>8.215928978610508</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004502298060410284</v>
+        <v>0.006011004895219871</v>
       </c>
       <c r="G23" t="n">
-        <v>5.727239687826985</v>
+        <v>3.922361601142847</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
         <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01811879628170788</v>
+        <v>0.01866404715127705</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03874427646223564</v>
+        <v>0.05337430168377529</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05686307274394352</v>
+        <v>0.03471025453249825</v>
       </c>
       <c r="N23" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0687108662278485</v>
+        <v>0.0740525658200191</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02996658976561286</v>
+        <v>0.0206782641362438</v>
       </c>
       <c r="R23" t="n">
-        <v>0.248141014999869</v>
+        <v>0.3310514767073175</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08294031324454748</v>
+        <v>0.08309298511140982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01183333333333333</v>
+        <v>0.006500000000000021</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7193889188401672</v>
+        <v>0.8455635813020196</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02478262900420196</v>
+        <v>0.02477716257113642</v>
       </c>
       <c r="E24" t="n">
-        <v>3.88529431575335</v>
+        <v>11.14434169188489</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007234166400374159</v>
+        <v>0.006214521396400818</v>
       </c>
       <c r="G24" t="n">
-        <v>2.109445376613043</v>
+        <v>6.983637521867402</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
         <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03355916180872853</v>
+        <v>0.019155206286837</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06225321807423184</v>
+        <v>0.05518141236177466</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09581237988296036</v>
+        <v>0.03602620607493766</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08870838689048027</v>
+        <v>0.09269550778537632</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02645516881624844</v>
+        <v>0.03751409542360166</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3304195648769959</v>
+        <v>0.09962626109346431</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07636028762416777</v>
+        <v>0.08308390019085124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0105</v>
+        <v>-0.0008333333333333346</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.261563328522357</v>
+        <v>-0.06986948479648791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02364634485444894</v>
+        <v>0.02018208738530321</v>
       </c>
       <c r="E25" t="n">
-        <v>5.773978579743314</v>
+        <v>7.683997610962831</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00901796592649293</v>
+        <v>0.006331160902997418</v>
       </c>
       <c r="G25" t="n">
-        <v>3.117128708149365</v>
+        <v>2.903108589541953</v>
       </c>
       <c r="H25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.02977784780211123</v>
+        <v>-0.00245579567779961</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07760360604629173</v>
+        <v>0.05621710478290117</v>
       </c>
       <c r="M25" t="n">
-        <v>0.107381453848403</v>
+        <v>0.05867290046070078</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08464110516840308</v>
+        <v>0.0755045632436077</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007037499122111351</v>
+        <v>0.01928745846070653</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1664714096001804</v>
+        <v>0.3312039723802317</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06619280800282325</v>
+        <v>0.08292786513529155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.00699999999999999</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2974030325919644</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0402381678146179</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.213322133233581</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02592120245898895</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.005331800678615</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="J26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01985189853474079</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2230634713271584</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2429153698618992</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.1440308434451399</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.07903262788201845</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.4809929322844414</v>
-      </c>
       <c r="S26" t="n">
-        <v>0.06156530260912776</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01083333333333333</v>
+        <v>0.002444444444444452</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5712849475107106</v>
+        <v>0.3569570643389883</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02988419135011744</v>
+        <v>0.01615420464429491</v>
       </c>
       <c r="E27" t="n">
-        <v>5.821288989571026</v>
+        <v>8.557333934336187</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009369679914198506</v>
+        <v>0.004421924072013013</v>
       </c>
       <c r="G27" t="n">
-        <v>3.303245747338121</v>
+        <v>3.174704660263317</v>
       </c>
       <c r="H27" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.03072317630376555</v>
+        <v>0.007203667321545535</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08063026127712251</v>
+        <v>0.03926416856357219</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1113534375808881</v>
+        <v>0.03206050124202665</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1069692165325108</v>
+        <v>0.06043558046941937</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0263389552553883</v>
+        <v>0.02117141190584718</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4935008515759229</v>
+        <v>0.4947625887193102</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05521398516385912</v>
+        <v>0.07673383651838438</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-0.0006111111111110972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.05966108210514499</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.02121522920814719</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8.983364407474312</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.007248503672108492</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.47782746458736</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I28" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-0.001800916830386337</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.06436258637199466</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.066163503202381</v>
       </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.07936971953855787</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.01500713316656321</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0.9852147510335766</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.07109259036924563</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01372222222222222</v>
+        <v>0.001833333333333335</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7879434775023439</v>
+        <v>0.3370500757798821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03444102847325109</v>
+        <v>0.008938727551266326</v>
       </c>
       <c r="E29" t="n">
-        <v>13.6608101120914</v>
+        <v>10.77155657970306</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01338915955362826</v>
+        <v>0.002314671604012257</v>
       </c>
       <c r="G29" t="n">
-        <v>6.282434202494654</v>
+        <v>5.343940001973173</v>
       </c>
       <c r="H29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.03891602331810303</v>
+        <v>0.005402750491159142</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1152196705731837</v>
+        <v>0.0205529662086391</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1541356938912867</v>
+        <v>0.01515021571747996</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1232802249589092</v>
+        <v>0.0334412742758931</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008060554385725491</v>
+        <v>0.012888308067254</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4979929503699178</v>
+        <v>0.9872756868011965</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03823487083282075</v>
+        <v>0.05877115319712344</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00105555555555556</v>
+        <v>0.0001111111111111125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2643987492202584</v>
+        <v>0.01541380763444053</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005303425310386172</v>
+        <v>0.032056276645072</v>
       </c>
       <c r="E30" t="n">
-        <v>6.891090022669418</v>
+        <v>9.028174250091942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001953873930560305</v>
+        <v>0.01409631623265443</v>
       </c>
       <c r="G30" t="n">
-        <v>2.098279298434079</v>
+        <v>5.486052868114774</v>
       </c>
       <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="n">
-        <v>30</v>
-      </c>
       <c r="J30" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002993540255238709</v>
+        <v>0.0003274394237066184</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01681395383474122</v>
+        <v>0.125167263768145</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01382041357950251</v>
+        <v>0.1248398243444383</v>
       </c>
       <c r="N30" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01898338970408404</v>
+        <v>0.1199278905642326</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002169435869342824</v>
+        <v>0.005239373203912337</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9978352603944053</v>
+        <v>0.9947879347510897</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03701808869275346</v>
+        <v>0.05839470676849273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001444444444444445</v>
+        <v>-0.0008888888888888736</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9869397599316886</v>
+        <v>-0.1583147146196203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01473704154005381</v>
+        <v>0.02215847948595168</v>
       </c>
       <c r="E31" t="n">
-        <v>5.824738484765944</v>
+        <v>6.156770990738317</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003115111300359899</v>
+        <v>0.007410319725418217</v>
       </c>
       <c r="G31" t="n">
-        <v>5.222113292651364</v>
+        <v>2.609334752983267</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K31" t="n">
-        <v>0.004096423507168743</v>
+        <v>-0.002619515389652869</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02680691767012418</v>
+        <v>0.06579942081102488</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02271049416295544</v>
+        <v>0.06841893620067775</v>
       </c>
       <c r="N31" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0.05275062554237153</v>
+        <v>0.08289857653413817</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02594370787224735</v>
+        <v>0.01709915572311328</v>
       </c>
       <c r="R31" t="n">
-        <v>0.974712347594535</v>
+        <v>0.4957614488919402</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03700591027743147</v>
+        <v>0.05534518562642284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.01272222222222221</v>
+        <v>0.003500000000000009</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5534014497129476</v>
+        <v>0.8490267867268401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0424759364411875</v>
+        <v>0.0120883823237204</v>
       </c>
       <c r="E32" t="n">
-        <v>8.335603665728948</v>
+        <v>10.92486987698855</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02109434703352628</v>
+        <v>0.003407179291232544</v>
       </c>
       <c r="G32" t="n">
-        <v>5.320462098267948</v>
+        <v>4.752342336322453</v>
       </c>
       <c r="H32" t="n">
+        <v>11</v>
+      </c>
+      <c r="I32" t="n">
         <v>29</v>
       </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
       <c r="J32" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.03608003781314004</v>
+        <v>0.01031434184675837</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1815262344454389</v>
+        <v>0.03025381255729381</v>
       </c>
       <c r="M32" t="n">
-        <v>0.217606272258579</v>
+        <v>0.01993947071053543</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1520408429114378</v>
+        <v>0.04522465938478263</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02948539153400118</v>
+        <v>0.01497084682748882</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4927357467915267</v>
+        <v>0.4962850959230849</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03674092387100351</v>
+        <v>0.05257640286079431</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_centroid</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.001833333333333317</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1507870206140534</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0248225808975165</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.775208960589791</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01040575046150299</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.31598417935697</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>24</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.005402750491159085</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.09239714058792643</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.09779989107908552</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.09286542533806122</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.000468284750134787</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.9995319344378301</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.03984412993727973</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_harmonic_count</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.006333333333333335</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6548689867369033</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.004369663743565489</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.61709652410185</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001630913919081435</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.203960065824812</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01866404715127701</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01448158719793169</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.004182459953345326</v>
+      </c>
+      <c r="N34" t="n">
+        <v>32</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01634764264867854</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.001866055450746855</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.9981374202263922</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0384553523857175</v>
       </c>
     </row>
   </sheetData>
@@ -2622,16 +2744,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1162055010834623</v>
+        <v>0.1126198321213277</v>
       </c>
       <c r="D2" t="n">
-        <v>29.15341529598185</v>
+        <v>24.13242841474581</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01170561228552199</v>
+        <v>0.01144895546955603</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2842,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9560145625955623</v>
+        <v>0.981400605961583</v>
       </c>
     </row>
     <row r="7">
@@ -2731,7 +2853,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-29 14:38:56</t>
+          <t>2025-10-30 19:19:42</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
+++ b/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.981400605961583</v>
+        <v>0.9707531641344758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3475935828877005</v>
+        <v>0.09975046269634075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2170360612814962</v>
+        <v>0.1962837155474144</v>
       </c>
       <c r="E2" t="n">
-        <v>8.727272727272727</v>
+        <v>10.21212121212121</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9962502712321736</v>
+        <v>0.9946779841302706</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9411764705882354</v>
+        <v>0.9425133689839572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5539355405282612</v>
+        <v>0.6048796614155938</v>
       </c>
       <c r="L2" t="n">
-        <v>1.939393939393939</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3393333333333334</v>
+        <v>0.2597777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>25.3041120646535</v>
+        <v>8.807694732752672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2672962602298325</v>
+        <v>0.2402799379949407</v>
       </c>
       <c r="E2" t="n">
-        <v>41.33987103003806</v>
+        <v>32.28563921605743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1126198321213277</v>
+        <v>0.09899146380364852</v>
       </c>
       <c r="G2" t="n">
-        <v>24.13242841474581</v>
+        <v>45.4105352393716</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1784444444444445</v>
+        <v>0.1847777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>6.125420244831675</v>
+        <v>4.428356246601447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1592877819450259</v>
+        <v>0.1807513272356406</v>
       </c>
       <c r="E3" t="n">
-        <v>34.05656287300216</v>
+        <v>16.69814401702755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0639797638192271</v>
+        <v>0.07558077675831647</v>
       </c>
       <c r="G3" t="n">
-        <v>22.87962469654637</v>
+        <v>9.2821533807364</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5258677144728225</v>
+        <v>0.7112917023096663</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5681038820081029</v>
+        <v>0.763508022350618</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04223616753528037</v>
+        <v>0.05221632004095167</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -778,1907 +778,1907 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5959222243067059</v>
+        <v>0.752253095884545</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02781834229860303</v>
+        <v>0.01125492646607296</v>
       </c>
       <c r="R3" t="n">
-        <v>0.972934573013758</v>
+        <v>0.9888703370717765</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9594754347902146</v>
+        <v>0.9503749190670989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001333333333333332</v>
+        <v>-0.001277777777777777</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4150273864576391</v>
+        <v>-0.1753425348935066</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01256196065263038</v>
+        <v>0.01754057897289814</v>
       </c>
       <c r="E4" t="n">
-        <v>19.82055137052322</v>
+        <v>4.500672396385797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003185293692923865</v>
+        <v>0.005156262155716166</v>
       </c>
       <c r="G4" t="n">
-        <v>6.60474318745185</v>
+        <v>2.2759427834768</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.003929273084479368</v>
+        <v>-0.004918733960650125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02828359475347364</v>
+        <v>0.05208794736022604</v>
       </c>
       <c r="M4" t="n">
-        <v>0.032212867837953</v>
+        <v>0.05700668132087616</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04699639509295447</v>
+        <v>0.07300059721701557</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01871280033948083</v>
+        <v>0.02091264985678953</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4953651652834584</v>
+        <v>0.4948259391967605</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4920744356194772</v>
+        <v>0.4861432921345034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0004999999999999997</v>
+        <v>0.00227777777777778</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.134104130214164</v>
+        <v>0.3344956170336443</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01453626273838108</v>
+        <v>0.03141937382119193</v>
       </c>
       <c r="E5" t="n">
-        <v>7.858411360567932</v>
+        <v>8.286353815798311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004124191490143841</v>
+        <v>0.01189634338946056</v>
       </c>
       <c r="G5" t="n">
-        <v>5.001103530049293</v>
+        <v>5.428803780463126</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001473477406679763</v>
+        <v>0.008768177929854588</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03662047272189825</v>
+        <v>0.1201754467744531</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03809395012857801</v>
+        <v>0.1114072688445985</v>
       </c>
       <c r="N5" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05438258928831323</v>
+        <v>0.1307615362455</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01776211656641498</v>
+        <v>0.01058608947104697</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3313713809681565</v>
+        <v>0.4973674120380908</v>
       </c>
       <c r="S5" t="n">
-        <v>0.490654515674762</v>
+        <v>0.4736177689428998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001166666666666677</v>
+        <v>0.004833333333333341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1974287848950839</v>
+        <v>0.4002546353299622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01807449432035795</v>
+        <v>0.02979918401359938</v>
       </c>
       <c r="E6" t="n">
-        <v>12.15579895050785</v>
+        <v>13.35367989013331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005662808409921604</v>
+        <v>0.01441180524234379</v>
       </c>
       <c r="G6" t="n">
-        <v>14.69226856415366</v>
+        <v>5.60370014268659</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003438113948919479</v>
+        <v>0.01860564585115486</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05028251510640633</v>
+        <v>0.145586343393506</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04684440115748685</v>
+        <v>0.1269806975423511</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06761970520955565</v>
+        <v>0.1240186103853033</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01733719010314932</v>
+        <v>0.02156773300820264</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9829582656843681</v>
+        <v>0.4946655922885876</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4885569217838453</v>
+        <v>0.4701500117774758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004055555555555562</v>
+        <v>-0.004333333333333337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4172037359296975</v>
+        <v>-0.6202198376019143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02362226621312531</v>
+        <v>0.01020206942800124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.56895205248186</v>
+        <v>5.848995680568279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007265211738333608</v>
+        <v>0.002657752615026349</v>
       </c>
       <c r="G7" t="n">
-        <v>5.859732201009711</v>
+        <v>5.017705578860223</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01195153896529144</v>
+        <v>-0.01668092386655262</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06451094448894795</v>
+        <v>0.02684830098379041</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05255940552365651</v>
+        <v>0.04352922485034302</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08837484741767015</v>
+        <v>0.04245909797186671</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0238639029287222</v>
+        <v>0.01561079698807631</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3307027141768727</v>
+        <v>0.9846291541657768</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4871966177002689</v>
+        <v>0.3285659266337987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01083333333333334</v>
+        <v>0.0002777777777777726</v>
       </c>
       <c r="C8" t="n">
-        <v>1.145670958845541</v>
+        <v>0.0549814754265248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02459625559247878</v>
+        <v>0.02121840541423813</v>
       </c>
       <c r="E8" t="n">
-        <v>12.32976302566165</v>
+        <v>6.799950357822085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01374953826752102</v>
+        <v>0.007191642125463303</v>
       </c>
       <c r="G8" t="n">
-        <v>5.747511084971356</v>
+        <v>3.052252435408135</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00106928999144566</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07264911386428292</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.07157982387283726</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.03192534381139491</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1220880728423424</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.09016272903094744</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.09201870453155567</v>
+        <v>0.08830702051656475</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03006936831078669</v>
+        <v>0.01565790665228182</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2481346866788927</v>
+        <v>0.4961159315277146</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4784316484600342</v>
+        <v>0.2456049109332731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.000333333333333322</v>
+        <v>-0.00283333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04467912256511192</v>
+        <v>-0.5840873990581456</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01743044640377552</v>
+        <v>0.01410821379945877</v>
       </c>
       <c r="E9" t="n">
-        <v>6.415270957235082</v>
+        <v>12.11861540252202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004778508957615259</v>
+        <v>0.003618480610165486</v>
       </c>
       <c r="G9" t="n">
-        <v>3.366749946494294</v>
+        <v>4.826947367672231</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0009823182711198094</v>
+        <v>-0.01090675791274592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04243043936051398</v>
+        <v>0.0365534609867252</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04341275763163379</v>
+        <v>0.04746021889947112</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06521021427231377</v>
+        <v>0.05871573763996822</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02277977491179979</v>
+        <v>0.02216227665324302</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4943691905578814</v>
+        <v>0.9783182404991441</v>
       </c>
       <c r="S9" t="n">
-        <v>0.328578500399727</v>
+        <v>0.1981194415868098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03766666666666667</v>
+        <v>-0.001833333333333335</v>
       </c>
       <c r="C10" t="n">
-        <v>2.67053153458052</v>
+        <v>-0.3024337707866416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01793933661395488</v>
+        <v>0.0158654497832287</v>
       </c>
       <c r="E10" t="n">
-        <v>9.762339874331568</v>
+        <v>5.785959285247317</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01023061180782251</v>
+        <v>0.004442713069793153</v>
       </c>
       <c r="G10" t="n">
-        <v>10.50506017671193</v>
+        <v>4.107647327072123</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1110019646365422</v>
+        <v>-0.007057313943541497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09084200904154129</v>
+        <v>0.0448797593154634</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02015995559500094</v>
+        <v>0.0519370732590049</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06711405763226871</v>
+        <v>0.0660290239610548</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02372795140927257</v>
+        <v>0.02114926464559139</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07678293064251177</v>
+        <v>0.4947680102069799</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1991968401097446</v>
+        <v>0.197943874893695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0002222222222222204</v>
+        <v>-0.003222222222222214</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03317926529288892</v>
+        <v>-0.5735540177229288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01498700960752762</v>
+        <v>0.01840330071500817</v>
       </c>
       <c r="E11" t="n">
-        <v>7.272652370890646</v>
+        <v>8.82231201831144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003724529715460858</v>
+        <v>0.004889796110153805</v>
       </c>
       <c r="G11" t="n">
-        <v>5.009530204742403</v>
+        <v>3.64111683071825</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0006548788474132229</v>
+        <v>-0.01240376390076986</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03307170367159085</v>
+        <v>0.04939613904339075</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03372658251900407</v>
+        <v>0.06179990294416061</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05606890868821421</v>
+        <v>0.07659108316981365</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02299720501662336</v>
+        <v>0.0271949441264229</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4943160561567769</v>
+        <v>0.3303388180996637</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1657350538384046</v>
+        <v>0.1649675040435283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.004499999999999988</v>
+        <v>-0.003722222222222221</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6832574642868769</v>
+        <v>-0.6861054687558198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01364590265372789</v>
+        <v>0.0168218238681655</v>
       </c>
       <c r="E12" t="n">
-        <v>6.289096040742422</v>
+        <v>39.0100755013636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003433091605446167</v>
+        <v>0.004780891497323891</v>
       </c>
       <c r="G12" t="n">
-        <v>13.03639515979042</v>
+        <v>3.51324651181924</v>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01326129666011784</v>
+        <v>-0.01432848588537211</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03048389915683435</v>
+        <v>0.04829599759032639</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04374519581695219</v>
+        <v>0.06262448347569849</v>
       </c>
       <c r="N12" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05105160334826447</v>
+        <v>0.07000927338561115</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02056770419143011</v>
+        <v>0.02171327579528477</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9798468008472546</v>
+        <v>0.4946299813986373</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1654603176672849</v>
+        <v>0.1649450667323371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005000000000000004</v>
+        <v>-0.002333333333333327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8024195328178988</v>
+        <v>-0.3674322562236003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01870364631905188</v>
+        <v>0.01987677125602955</v>
       </c>
       <c r="E13" t="n">
-        <v>6.444841333640641</v>
+        <v>11.42305823417443</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006348014519313219</v>
+        <v>0.0062190306880183</v>
       </c>
       <c r="G13" t="n">
-        <v>2.638740952646527</v>
+        <v>5.386464550025922</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.008982035928143686</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.06282390873978656</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.07180594466793025</v>
+      </c>
+      <c r="N13" t="n">
         <v>14</v>
       </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.01473477406679765</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.05636675530180484</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.04163198123500719</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17</v>
-      </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06997346802746023</v>
+        <v>0.08272339098259662</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01360671272565538</v>
+        <v>0.01989948224281006</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2491524635010629</v>
+        <v>0.3311368493819281</v>
       </c>
       <c r="S13" t="n">
-        <v>0.142012533836597</v>
+        <v>0.1646956455975291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.002222222222222214</v>
+        <v>-0.0001111111111111132</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.274461984214907</v>
+        <v>-0.01183741578319962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01533266727680706</v>
+        <v>0.02414778008960678</v>
       </c>
       <c r="E14" t="n">
-        <v>9.580177754308687</v>
+        <v>4.491666845059593</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004082968308580459</v>
+        <v>0.01037007866025337</v>
       </c>
       <c r="G14" t="n">
-        <v>4.390264185746751</v>
+        <v>3.760653774158774</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.006548788474132259</v>
+        <v>-0.0004277159965782801</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03625443433605719</v>
+        <v>0.1047573019106235</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04280322281018945</v>
+        <v>0.1051850179072018</v>
       </c>
       <c r="N14" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05736207182106995</v>
+        <v>0.1004985280548692</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02110763748501276</v>
+        <v>0.004258773855754294</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4947782005536138</v>
+        <v>0.4989375688630363</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1419889166803931</v>
+        <v>0.1637951998288154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0005555555555555607</v>
+        <v>0.0005555555555555617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07216868989882542</v>
+        <v>0.08273213754100171</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02002900293228917</v>
+        <v>0.02123673350344928</v>
       </c>
       <c r="E15" t="n">
-        <v>7.938179714903553</v>
+        <v>5.526389759783762</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006671834941016938</v>
+        <v>0.007044969566037361</v>
       </c>
       <c r="G15" t="n">
-        <v>6.382760628751463</v>
+        <v>2.150753503675207</v>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001637197118533086</v>
+        <v>0.002138579982891384</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05924209631061456</v>
+        <v>0.07116744510426873</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05760489919208147</v>
+        <v>0.06902886512137735</v>
       </c>
       <c r="N15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07493184870999466</v>
+        <v>0.08838329858357313</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0156897523993801</v>
+        <v>0.0172158534793044</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4961080934254133</v>
+        <v>0.2489286203363709</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1416911281211669</v>
+        <v>0.1414621469342139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001666666666666667</v>
+        <v>-0.001499999999999989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1174619643449707</v>
+        <v>-0.2025098523574656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02525255962800446</v>
+        <v>0.01591287774069021</v>
       </c>
       <c r="E16" t="n">
-        <v>11.75954674334078</v>
+        <v>14.24359698438277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008946395206243171</v>
+        <v>0.004161110516278823</v>
       </c>
       <c r="G16" t="n">
-        <v>4.623846950130789</v>
+        <v>3.390833746993616</v>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004911591355599213</v>
+        <v>-0.005774165953806629</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07943889666435512</v>
+        <v>0.04203504379460905</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07452730530875591</v>
+        <v>0.04780920974841568</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O16" t="n">
         <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09447404765892067</v>
+        <v>0.06622641021750753</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01503515099456555</v>
+        <v>0.02419136642289847</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1994003969845921</v>
+        <v>0.199037004578107</v>
       </c>
       <c r="S16" t="n">
-        <v>0.123846259005469</v>
+        <v>0.1242574188747774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001055555555555547</v>
+        <v>-0.0008888888888888804</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2572734531112439</v>
+        <v>-0.0886102797146873</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01580145480346008</v>
+        <v>0.02718080802272003</v>
       </c>
       <c r="E17" t="n">
-        <v>5.117751546326345</v>
+        <v>7.728542599200476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005240683561188226</v>
+        <v>0.009929988729157551</v>
       </c>
       <c r="G17" t="n">
-        <v>3.757748045398852</v>
+        <v>14.60049815031224</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00311067452521281</v>
+        <v>-0.003421727972626144</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04653428674571569</v>
+        <v>0.1003115657412024</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0496449612709285</v>
+        <v>0.1037332937138286</v>
       </c>
       <c r="N17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05911588433700241</v>
+        <v>0.1131214209955903</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01258159759128672</v>
+        <v>0.01280985525438791</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1994979992905319</v>
+        <v>0.3319160677385545</v>
       </c>
       <c r="S17" t="n">
-        <v>0.110501572634023</v>
+        <v>0.1233999150460335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001888888888888894</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3553633587038246</v>
+        <v>0.9861754664895477</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01717641486169511</v>
+        <v>0.01446146008571677</v>
       </c>
       <c r="E18" t="n">
-        <v>8.078883358882246</v>
+        <v>11.54090257712815</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004524392926353802</v>
+        <v>0.008289806397366123</v>
       </c>
       <c r="G18" t="n">
-        <v>4.19468591289799</v>
+        <v>10.07716477895975</v>
       </c>
       <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04597946963216428</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.08374263879771607</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03776316916555179</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" t="n">
         <v>14</v>
       </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.005566470203012456</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.04017403365936099</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.03460756345634853</v>
-      </c>
-      <c r="N18" t="n">
-        <v>21</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>0.06425983980069945</v>
+        <v>0.06018588237700175</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02408580614133846</v>
+        <v>0.02355675642071432</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3306784476714225</v>
+        <v>0.06656213413462318</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09965511791828928</v>
+        <v>0.1106468471548064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002055555555555554</v>
+        <v>-0.0003888888888888834</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3782994732137402</v>
+        <v>-0.1514592229574251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0188913517466896</v>
+        <v>0.01913989922169666</v>
       </c>
       <c r="E19" t="n">
-        <v>12.50545048987391</v>
+        <v>11.41058244976407</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004675972852145564</v>
+        <v>0.004729910105452258</v>
       </c>
       <c r="G19" t="n">
-        <v>4.27834596433634</v>
+        <v>3.311047791371441</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
         <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.00605762933857236</v>
+        <v>-0.001497005988023931</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04151997711298345</v>
+        <v>0.04778098962991521</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04757760645155581</v>
+        <v>0.04927799561793914</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07067570541557902</v>
+        <v>0.07965666789084851</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02915572830259557</v>
+        <v>0.03187567826093329</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1422645960130806</v>
+        <v>0.1657859102773008</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09952647684531438</v>
+        <v>0.110506053685636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004055555555555565</v>
+        <v>-0.001888888888888887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4316877786119722</v>
+        <v>-0.5420763909950774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01635608940312215</v>
+        <v>0.01099862044674394</v>
       </c>
       <c r="E20" t="n">
-        <v>9.253635977663791</v>
+        <v>6.576663325519087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005510747574628336</v>
+        <v>0.002691915066191645</v>
       </c>
       <c r="G20" t="n">
-        <v>6.942729649585555</v>
+        <v>8.450197879505444</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
         <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01195153896529145</v>
+        <v>-0.007271171941830617</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04893230145016993</v>
+        <v>0.02719340600449257</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03698076248487848</v>
+        <v>0.03446457794632318</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06119086510622521</v>
+        <v>0.04577419379463767</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01225856365605529</v>
+        <v>0.0185807877901451</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2492361806036694</v>
+        <v>0.9817581599683841</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09060448881083841</v>
+        <v>0.09062514931613608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001111111111111125</v>
+        <v>-0.003888888888888885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1087694631837152</v>
+        <v>-0.4996171437754693</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02262434809018695</v>
+        <v>0.01577400924422632</v>
       </c>
       <c r="E21" t="n">
-        <v>5.860700226967705</v>
+        <v>6.525822979617772</v>
       </c>
       <c r="F21" t="n">
-        <v>0.008991632761417156</v>
+        <v>0.005499396736470469</v>
       </c>
       <c r="G21" t="n">
-        <v>8.180030484217596</v>
+        <v>5.088653601474579</v>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003274394237066183</v>
+        <v>-0.01497005988023951</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07984058040266197</v>
+        <v>0.05555425210580407</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07656618616559578</v>
+        <v>0.07052431198604357</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08464146887327786</v>
+        <v>0.06564846560164526</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.004800888470615897</v>
+        <v>0.01009421349584119</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3328007535663969</v>
+        <v>0.1426514351368914</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09028068655870801</v>
+        <v>0.09032995834870271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00244444444444445</v>
+        <v>-0.006000000000000003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5489704084826057</v>
+        <v>-0.6057666745096695</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03929771960778704</v>
+        <v>0.01940451108076355</v>
       </c>
       <c r="E22" t="n">
-        <v>8.526855221433564</v>
+        <v>11.26940929685575</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02057724004607708</v>
+        <v>0.005127407769867766</v>
       </c>
       <c r="G22" t="n">
-        <v>7.864691954711735</v>
+        <v>5.44342013323679</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.0230966638152267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.05179646378437315</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.07489312759959985</v>
+      </c>
+      <c r="N22" t="n">
+        <v>16</v>
+      </c>
+      <c r="O22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.007203667321545528</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1827141779425562</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.1755105106210107</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>0.147019339417608</v>
+        <v>0.08075793277910756</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0356948385249482</v>
+        <v>0.02896146899473441</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9655353708474734</v>
+        <v>0.2482029197091105</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08948137081072201</v>
+        <v>0.07648246071618854</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006333333333333345</v>
+        <v>-0.0008333333333333234</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5895267080230676</v>
+        <v>-0.08351387636633315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01979397390411463</v>
+        <v>0.01115789422730638</v>
       </c>
       <c r="E23" t="n">
-        <v>8.215928978610508</v>
+        <v>7.598691202073846</v>
       </c>
       <c r="F23" t="n">
-        <v>0.006011004895219871</v>
+        <v>0.002697780669678408</v>
       </c>
       <c r="G23" t="n">
-        <v>3.922361601142847</v>
+        <v>4.081253531700735</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01866404715127705</v>
+        <v>-0.003207869974337002</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05337430168377529</v>
+        <v>0.02725265963365799</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03471025453249825</v>
+        <v>0.03046052960799499</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0740525658200191</v>
+        <v>0.04643706137272818</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0206782641362438</v>
+        <v>0.01918440173907019</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3310514767073175</v>
+        <v>0.9811767117841138</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08309298511140982</v>
+        <v>0.06653156089463352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006500000000000021</v>
+        <v>0.0002777777777777844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8455635813020196</v>
+        <v>0.1080840047326702</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02477716257113642</v>
+        <v>0.01571143910667444</v>
       </c>
       <c r="E24" t="n">
-        <v>11.14434169188489</v>
+        <v>13.55153241201711</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006214521396400818</v>
+        <v>0.004222032285203134</v>
       </c>
       <c r="G24" t="n">
-        <v>6.983637521867402</v>
+        <v>5.331996992374427</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>0.019155206286837</v>
+        <v>0.001069289991445706</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05518141236177466</v>
+        <v>0.04265046826237075</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03602620607493766</v>
+        <v>0.04158117827092504</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09269550778537632</v>
+        <v>0.06538806043393128</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03751409542360166</v>
+        <v>0.02273759217156053</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09962626109346431</v>
+        <v>0.9777679119789836</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08308390019085124</v>
+        <v>0.06233799454598322</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0008333333333333346</v>
+        <v>-0.003055555555555548</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06986948479648791</v>
+        <v>-0.2116792726817312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02018208738530321</v>
+        <v>0.02134629769282224</v>
       </c>
       <c r="E25" t="n">
-        <v>7.683997610962831</v>
+        <v>23.44837010482311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006331160902997418</v>
+        <v>0.01114335697934031</v>
       </c>
       <c r="G25" t="n">
-        <v>2.903108589541953</v>
+        <v>8.256759663445921</v>
       </c>
       <c r="H25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.00245579567779961</v>
+        <v>-0.01176218990590245</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05621710478290117</v>
+        <v>0.112568867568656</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05867290046070078</v>
+        <v>0.1243310574745584</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0755045632436077</v>
+        <v>0.08883928417391099</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01928745846070653</v>
+        <v>0.023729583394745</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3312039723802317</v>
+        <v>0.2485256474805941</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08292786513529155</v>
+        <v>0.05839644168544104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.006444444444444438</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-0.5839249664928057</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01980415631506322</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>10.50021140348736</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.006555216450670804</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.813798106865082</v>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I26" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.02480752780153975</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.06622001735092232</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.09102754515246207</v>
       </c>
       <c r="N26" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.08242118122853943</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.01620116387761711</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0.9840571291851341</v>
       </c>
       <c r="S26" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.05527601997753592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002444444444444452</v>
+        <v>-0.00488888888888889</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3569570643389883</v>
+        <v>-0.8913918864632381</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01615420464429491</v>
+        <v>0.02423192390091209</v>
       </c>
       <c r="E27" t="n">
-        <v>8.557333934336187</v>
+        <v>8.165391388796811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004421924072013013</v>
+        <v>0.008186496444624143</v>
       </c>
       <c r="G27" t="n">
-        <v>3.174704660263317</v>
+        <v>7.876200805080406</v>
       </c>
       <c r="H27" t="n">
+        <v>30</v>
+      </c>
+      <c r="I27" t="n">
         <v>12</v>
       </c>
-      <c r="I27" t="n">
-        <v>24</v>
-      </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007203667321545535</v>
+        <v>-0.01881950384944397</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03926416856357219</v>
+        <v>0.08269901393580982</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03206050124202665</v>
+        <v>0.1015185177852538</v>
       </c>
       <c r="N27" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06043558046941937</v>
+        <v>0.1008487188032416</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02117141190584718</v>
+        <v>0.01814970486743175</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4947625887193102</v>
+        <v>0.1992766375682325</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07673383651838438</v>
+        <v>0.05235185878384008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0006111111111110972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.05966108210514499</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02121522920814719</v>
+        <v>0.003455771951421021</v>
       </c>
       <c r="E28" t="n">
-        <v>8.983364407474312</v>
+        <v>4.621579840131242</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007248503672108492</v>
+        <v>0.0009590997026396539</v>
       </c>
       <c r="G28" t="n">
-        <v>3.47782746458736</v>
+        <v>4.950538763170926</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001800916830386337</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06436258637199466</v>
+        <v>0.009688711185663914</v>
       </c>
       <c r="M28" t="n">
-        <v>0.066163503202381</v>
+        <v>0.009688711185663914</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07936971953855787</v>
+        <v>0.01438227419341928</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01500713316656321</v>
+        <v>0.004693563007755371</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9852147510335766</v>
+        <v>0.9953283636119811</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07109259036924563</v>
+        <v>0.04543453626819286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001833333333333335</v>
+        <v>0.0007777777777777812</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3370500757798821</v>
+        <v>0.2093046500816848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008938727551266326</v>
+        <v>0.01258282283647245</v>
       </c>
       <c r="E29" t="n">
-        <v>10.77155657970306</v>
+        <v>19.67522962233527</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002314671604012257</v>
+        <v>0.002779478795120109</v>
       </c>
       <c r="G29" t="n">
-        <v>5.343940001973173</v>
+        <v>11.66754236226075</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005402750491159142</v>
+        <v>0.002994011976047917</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0205529662086391</v>
+        <v>0.02807796438522476</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01515021571747996</v>
+        <v>0.02508395240917684</v>
       </c>
       <c r="N29" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0334412742758931</v>
+        <v>0.05236734677673086</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.012888308067254</v>
+        <v>0.0242893823915061</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9872756868011965</v>
+        <v>0.9762866014145385</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05877115319712344</v>
+        <v>0.04540277813064212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001111111111111125</v>
+        <v>0.001722222222222228</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01541380763444053</v>
+        <v>0.6710622274440855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.032056276645072</v>
+        <v>0.01384817306863502</v>
       </c>
       <c r="E30" t="n">
-        <v>9.028174250091942</v>
+        <v>5.158479187059372</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01409631623265443</v>
+        <v>0.003323751041067441</v>
       </c>
       <c r="G30" t="n">
-        <v>5.486052868114774</v>
+        <v>3.739600470741925</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003274394237066184</v>
+        <v>0.006629597946963241</v>
       </c>
       <c r="L30" t="n">
-        <v>0.125167263768145</v>
+        <v>0.0335761379148829</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1248398243444383</v>
+        <v>0.02694653996791966</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1199278905642326</v>
+        <v>0.05763349692942991</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.005239373203912337</v>
+        <v>0.02405735901454702</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9947879347510897</v>
+        <v>0.9765078012449445</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05839470676849273</v>
+        <v>0.04539893889448085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0008888888888888736</v>
+        <v>-0.003166666666666664</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1583147146196203</v>
+        <v>-0.3219462341898252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02215847948595168</v>
+        <v>0.03904143454609713</v>
       </c>
       <c r="E31" t="n">
-        <v>6.156770990738317</v>
+        <v>9.971850060490336</v>
       </c>
       <c r="F31" t="n">
-        <v>0.007410319725418217</v>
+        <v>0.02274998900321101</v>
       </c>
       <c r="G31" t="n">
-        <v>2.609334752983267</v>
+        <v>9.336650877051033</v>
       </c>
       <c r="H31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002619515389652869</v>
+        <v>-0.01218990590248074</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06579942081102488</v>
+        <v>0.2298176845665809</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06841893620067775</v>
+        <v>0.2420075904690616</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08289857653413817</v>
+        <v>0.1624831222776459</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01709915572311328</v>
+        <v>0.06733456228893495</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4957614488919402</v>
+        <v>0.9369133496955877</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05534518562642284</v>
+        <v>0.04495997026943335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003500000000000009</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8490267867268401</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0120883823237204</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>10.92486987698855</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003407179291232544</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.752342336322453</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J32" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01031434184675837</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03025381255729381</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01993947071053543</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.04522465938478263</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.01497084682748882</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.4962850959230849</v>
-      </c>
       <c r="S32" t="n">
-        <v>0.05257640286079431</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.001833333333333317</v>
+        <v>-0.008277777777777771</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1507870206140534</v>
+        <v>-1.02059456733359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0248225808975165</v>
+        <v>0.02102863786359908</v>
       </c>
       <c r="E33" t="n">
-        <v>6.775208960589791</v>
+        <v>4.698049127349769</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01040575046150299</v>
+        <v>0.008545640156939985</v>
       </c>
       <c r="G33" t="n">
-        <v>5.31598417935697</v>
+        <v>2.697219013003128</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.005402750491159085</v>
+        <v>-0.03186484174508124</v>
       </c>
       <c r="L33" t="n">
-        <v>0.09239714058792643</v>
+        <v>0.08632704102538</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09779989107908552</v>
+        <v>0.1181918827704612</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>0.09286542533806122</v>
+        <v>0.08751724359127251</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.000468284750134787</v>
+        <v>0.001190202565892515</v>
       </c>
       <c r="R33" t="n">
-        <v>0.9995319344378301</v>
+        <v>0.2499256344671437</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03984412993727973</v>
+        <v>0.04146247798593805</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.006333333333333335</v>
+        <v>-0.004222222222222212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6548689867369033</v>
+        <v>-0.420254839146577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004369663743565489</v>
+        <v>0.03324831275298264</v>
       </c>
       <c r="E34" t="n">
-        <v>5.61709652410185</v>
+        <v>11.65557390212322</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001630913919081435</v>
+        <v>0.01720136275756224</v>
       </c>
       <c r="G34" t="n">
-        <v>3.203960065824812</v>
+        <v>5.753145236084132</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01866404715127701</v>
+        <v>-0.0162532078699743</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01448158719793169</v>
+        <v>0.1737661218110834</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004182459953345326</v>
+        <v>0.1900193296810577</v>
       </c>
       <c r="N34" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01634764264867854</v>
+        <v>0.1383732367771908</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001866055450746855</v>
+        <v>0.0353928850338926</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9981374202263922</v>
+        <v>0.965816951665904</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0384553523857175</v>
+        <v>0.03969826251072835</v>
       </c>
     </row>
   </sheetData>
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1126198321213277</v>
+        <v>0.09899146380364852</v>
       </c>
       <c r="D2" t="n">
-        <v>24.13242841474581</v>
+        <v>45.4105352393716</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01144895546955603</v>
+        <v>0.01169835593632007</v>
       </c>
       <c r="F2" t="n">
         <v>33</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.981400605961583</v>
+        <v>0.9707531641344758</v>
       </c>
     </row>
     <row r="7">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-30 19:19:42</t>
+          <t>2025-10-31 11:41:54</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
+++ b/notebooks/test_output/oob_vs_shap_comparison_no_load.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9707531641344758</v>
+        <v>0.9784174698663071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09975046269634075</v>
+        <v>0.2214076246334311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1962837155474144</v>
+        <v>0.2223225513429074</v>
       </c>
       <c r="E2" t="n">
-        <v>10.21212121212121</v>
+        <v>8.875</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9946779841302706</v>
+        <v>0.9948201532782767</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9425133689839572</v>
+        <v>0.910190615835777</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6048796614155938</v>
+        <v>0.4750521468185642</v>
       </c>
       <c r="L2" t="n">
-        <v>1.757575757575758</v>
+        <v>2.5625</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2597777777777778</v>
+        <v>0.2943888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>8.807694732752672</v>
+        <v>4.218015387173851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2402799379949407</v>
+        <v>0.2429208471187541</v>
       </c>
       <c r="E2" t="n">
-        <v>32.28563921605743</v>
+        <v>25.41568183056257</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09899146380364852</v>
+        <v>0.1013742978993689</v>
       </c>
       <c r="G2" t="n">
-        <v>45.4105352393716</v>
+        <v>11.68422402249553</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1847777777777778</v>
+        <v>0.1806666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>4.428356246601447</v>
+        <v>6.294998424515167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1807513272356406</v>
+        <v>0.1799622368644382</v>
       </c>
       <c r="E3" t="n">
-        <v>16.69814401702755</v>
+        <v>19.01096116724168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07558077675831647</v>
+        <v>0.0739422150221782</v>
       </c>
       <c r="G3" t="n">
-        <v>9.2821533807364</v>
+        <v>9.022167769594388</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7112917023096663</v>
+        <v>0.6137006982449518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.763508022350618</v>
+        <v>0.7293980481677745</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05221632004095167</v>
+        <v>0.1156973499228228</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -778,163 +778,163 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.752253095884545</v>
+        <v>0.7408266478523435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01125492646607296</v>
+        <v>0.011428599684569</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9888703370717765</v>
+        <v>0.9887005373507005</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9503749190670989</v>
+        <v>0.8963004170164732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001277777777777777</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1753425348935066</v>
+        <v>3.378351342122443</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01754057897289814</v>
+        <v>0.01944866375700242</v>
       </c>
       <c r="E4" t="n">
-        <v>4.500672396385797</v>
+        <v>7.443188598705782</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005156262155716166</v>
+        <v>0.01463406787634083</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2759427834768</v>
+        <v>6.177400313597668</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.004918733960650125</v>
+        <v>0.1698433666729571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05208794736022604</v>
+        <v>0.1443567864792279</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05700668132087616</v>
+        <v>0.02548658019372924</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07300059721701557</v>
+        <v>0.08006173199081081</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02091264985678953</v>
+        <v>0.06429505448841706</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4948259391967605</v>
+        <v>0.07110203505584621</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4861432921345034</v>
+        <v>0.4937085289917617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00227777777777778</v>
+        <v>-0.003055555555555563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3344956170336443</v>
+        <v>-0.3073150175088126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03141937382119193</v>
+        <v>0.01884777550275823</v>
       </c>
       <c r="E5" t="n">
-        <v>8.286353815798311</v>
+        <v>10.21756441076837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01189634338946056</v>
+        <v>0.004762436287053222</v>
       </c>
       <c r="G5" t="n">
-        <v>5.428803780463126</v>
+        <v>5.326476104861868</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008768177929854588</v>
+        <v>-0.01037931685223629</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1201754467744531</v>
+        <v>0.04697873510089061</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1114072688445985</v>
+        <v>0.0573580519531269</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1307615362455</v>
+        <v>0.07758813509136298</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01058608947104697</v>
+        <v>0.03060939999047237</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4973674120380908</v>
+        <v>0.2481014409390213</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4736177689428998</v>
+        <v>0.4860602650329449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004833333333333341</v>
+        <v>0.01372222222222222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4002546353299622</v>
+        <v>0.987478038185562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02979918401359938</v>
+        <v>0.03260563681180013</v>
       </c>
       <c r="E6" t="n">
-        <v>13.35367989013331</v>
+        <v>5.657317386501933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01441180524234379</v>
+        <v>0.01383785538693269</v>
       </c>
       <c r="G6" t="n">
-        <v>5.60370014268659</v>
+        <v>4.753951329722718</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -946,1190 +946,1190 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01860564585115486</v>
+        <v>0.04661256840913378</v>
       </c>
       <c r="L6" t="n">
-        <v>0.145586343393506</v>
+        <v>0.1365026014845409</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1269806975423511</v>
+        <v>0.08989003307540716</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1240186103853033</v>
+        <v>0.134223296182812</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02156773300820264</v>
+        <v>0.002279305301728929</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4946655922885876</v>
+        <v>0.4994308223393975</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4701500117774758</v>
+        <v>0.4784940758478262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.004333333333333337</v>
+        <v>0.001277777777777772</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6202198376019143</v>
+        <v>0.1283014281372515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01020206942800124</v>
+        <v>0.02428467376910738</v>
       </c>
       <c r="E7" t="n">
-        <v>5.848995680568279</v>
+        <v>6.994644401800977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002657752615026349</v>
+        <v>0.01008017024433067</v>
       </c>
       <c r="G7" t="n">
-        <v>5.017705578860223</v>
+        <v>7.393788482157205</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01668092386655262</v>
+        <v>0.004340441592753331</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02684830098379041</v>
+        <v>0.09943516703155811</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04352922485034302</v>
+        <v>0.09509472543880478</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04245909797186671</v>
+        <v>0.09996949235581905</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01561079698807631</v>
+        <v>0.0005343253242609397</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9846291541657768</v>
+        <v>0.4998664543473468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3285659266337987</v>
+        <v>0.4773053876075012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002777777777777726</v>
+        <v>-0.005277777777777775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0549814754265248</v>
+        <v>-1.440382351776153</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02121840541423813</v>
+        <v>0.01332987546267843</v>
       </c>
       <c r="E8" t="n">
-        <v>6.799950357822085</v>
+        <v>10.63225199076348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007191642125463303</v>
+        <v>0.002826320891354883</v>
       </c>
       <c r="G8" t="n">
-        <v>3.052252435408135</v>
+        <v>8.489196724396216</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00106928999144566</v>
+        <v>-0.01792791092658991</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07264911386428292</v>
+        <v>0.02788005391820799</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07157982387283726</v>
+        <v>0.0458079648447979</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08830702051656475</v>
+        <v>0.05487332857917294</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01565790665228182</v>
+        <v>0.02699327466096496</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4961159315277146</v>
+        <v>0.3303608264911008</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2456049109332731</v>
+        <v>0.328320108011457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00283333333333333</v>
+        <v>-0.004555555555555551</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5840873990581456</v>
+        <v>-0.6827162461620255</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01410821379945877</v>
+        <v>0.01284801688864678</v>
       </c>
       <c r="E9" t="n">
-        <v>12.11861540252202</v>
+        <v>7.689844564794694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003618480610165486</v>
+        <v>0.004006603993138945</v>
       </c>
       <c r="G9" t="n">
-        <v>4.826947367672231</v>
+        <v>3.406689285464507</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.01547461785242497</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03952287785130879</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.05499749570373375</v>
+      </c>
+      <c r="N9" t="n">
+        <v>29</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>-0.01090675791274592</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0365534609867252</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.04746021889947112</v>
-      </c>
-      <c r="N9" t="n">
-        <v>26</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0.05871573763996822</v>
+        <v>0.0528897253613063</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02216227665324302</v>
+        <v>0.01336684750999751</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9783182404991441</v>
+        <v>0.199466751669424</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1981194415868098</v>
+        <v>0.3273325105524006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001833333333333335</v>
+        <v>-0.000888888888888889</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3024337707866416</v>
+        <v>-0.1661443684112394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0158654497832287</v>
+        <v>0.0250574055867606</v>
       </c>
       <c r="E10" t="n">
-        <v>5.785959285247317</v>
+        <v>8.734368147955879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004442713069793153</v>
+        <v>0.007177333994267826</v>
       </c>
       <c r="G10" t="n">
-        <v>4.107647327072123</v>
+        <v>4.954241505780508</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007057313943541497</v>
+        <v>-0.003019437629741461</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0448797593154634</v>
+        <v>0.07080033246092163</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0519370732590049</v>
+        <v>0.07381977009066309</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0660290239610548</v>
+        <v>0.1031504948379793</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02114926464559139</v>
+        <v>0.03235016237705762</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4947680102069799</v>
+        <v>0.09967754153460098</v>
       </c>
       <c r="S10" t="n">
-        <v>0.197943874893695</v>
+        <v>0.3253281177154068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.003222222222222214</v>
+        <v>-0.003944444444444438</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5735540177229288</v>
+        <v>-0.8963654419748017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01840330071500817</v>
+        <v>0.01654983253962661</v>
       </c>
       <c r="E11" t="n">
-        <v>8.82231201831144</v>
+        <v>6.29452548111436</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004889796110153805</v>
+        <v>0.003760556735643373</v>
       </c>
       <c r="G11" t="n">
-        <v>3.64111683071825</v>
+        <v>3.274705066937364</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.01339875448197771</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03709576109100515</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.05049451557298286</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" t="n">
         <v>5</v>
       </c>
-      <c r="K11" t="n">
-        <v>-0.01240376390076986</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.04939613904339075</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.06179990294416061</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
       <c r="P11" t="n">
-        <v>0.07659108316981365</v>
+        <v>0.06812849838094</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0271949441264229</v>
+        <v>0.03103273728993484</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3303388180996637</v>
+        <v>0.1658090817211106</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1649675040435283</v>
+        <v>0.1980004130123383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.003722222222222221</v>
+        <v>-0.003666666666666664</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6861054687558198</v>
+        <v>-0.4106271128685529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0168218238681655</v>
+        <v>0.01975264299289732</v>
       </c>
       <c r="E12" t="n">
-        <v>39.0100755013636</v>
+        <v>4.901855957905414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004780891497323891</v>
+        <v>0.004942264773402912</v>
       </c>
       <c r="G12" t="n">
-        <v>3.51324651181924</v>
+        <v>3.122608588195283</v>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01432848588537211</v>
+        <v>-0.01245518022268352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04829599759032639</v>
+        <v>0.04875264120999333</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06262448347569849</v>
+        <v>0.06120782143267685</v>
       </c>
       <c r="N12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07000927338561115</v>
+        <v>0.08131308295348176</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02171327579528477</v>
+        <v>0.03256044174348843</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4946299813986373</v>
+        <v>0.2479814039855153</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1649450667323371</v>
+        <v>0.1975812958648534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002333333333333327</v>
+        <v>-5.555555555556008e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3674322562236003</v>
+        <v>-0.005135701761997412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01987677125602955</v>
+        <v>0.03078080624405995</v>
       </c>
       <c r="E13" t="n">
-        <v>11.42305823417443</v>
+        <v>8.464264337520843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0062190306880183</v>
+        <v>0.01283893740658587</v>
       </c>
       <c r="G13" t="n">
-        <v>5.386464550025922</v>
+        <v>5.35120731474129</v>
       </c>
       <c r="H13" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.0001887148518588566</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.126648841694871</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1268375565467299</v>
+      </c>
+      <c r="N13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
-        <v>-0.008982035928143686</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.06282390873978656</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.07180594466793025</v>
-      </c>
-      <c r="N13" t="n">
-        <v>14</v>
-      </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08272339098259662</v>
+        <v>0.126711258457832</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01989948224281006</v>
+        <v>6.241676296100951e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3311368493819281</v>
+        <v>0.4999843962962262</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1646956455975291</v>
+        <v>0.1950520157836964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001111111111111132</v>
+        <v>-0.002499999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01183741578319962</v>
+        <v>-0.3977469316059385</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02414778008960678</v>
+        <v>0.01649802046618768</v>
       </c>
       <c r="E14" t="n">
-        <v>4.491666845059593</v>
+        <v>8.592545734884725</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01037007866025337</v>
+        <v>0.004095223743154696</v>
       </c>
       <c r="G14" t="n">
-        <v>3.760653774158774</v>
+        <v>5.52013674762164</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0004277159965782801</v>
+        <v>-0.008492168333647854</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1047573019106235</v>
+        <v>0.04039706146443448</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1051850179072018</v>
+        <v>0.04888922979808234</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1004985280548692</v>
+        <v>0.06791521049703267</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004258773855754294</v>
+        <v>0.02751814903259819</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4989375688630363</v>
+        <v>0.973218819484107</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1637951998288154</v>
+        <v>0.16531960861075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0005555555555555617</v>
+        <v>-0.0008888888888888936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08273213754100171</v>
+        <v>-0.06600866367579465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02123673350344928</v>
+        <v>0.02390640054843028</v>
       </c>
       <c r="E15" t="n">
-        <v>5.526389759783762</v>
+        <v>7.273418752070365</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007044969566037361</v>
+        <v>0.008745545480911467</v>
       </c>
       <c r="G15" t="n">
-        <v>2.150753503675207</v>
+        <v>3.227041193405296</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002138579982891384</v>
+        <v>-0.003019437629741476</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07116744510426873</v>
+        <v>0.08626985007178939</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06902886512137735</v>
+        <v>0.08928928770153087</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08838329858357313</v>
+        <v>0.09841230520962002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0172158534793044</v>
+        <v>0.01214245513783063</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2489286203363709</v>
+        <v>0.988003215282401</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1414621469342139</v>
+        <v>0.1642227775283544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.001499999999999989</v>
+        <v>-0.003944444444444456</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2025098523574656</v>
+        <v>-0.6560017781888221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01591287774069021</v>
+        <v>0.01875121955325727</v>
       </c>
       <c r="E16" t="n">
-        <v>14.24359698438277</v>
+        <v>7.055122141168508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004161110516278823</v>
+        <v>0.00571279958605532</v>
       </c>
       <c r="G16" t="n">
-        <v>3.390833746993616</v>
+        <v>3.51705200675964</v>
       </c>
       <c r="H16" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" t="n">
         <v>18</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.005774165953806629</v>
+        <v>-0.01339875448197777</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04203504379460905</v>
+        <v>0.05635353047501487</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04780920974841568</v>
+        <v>0.06975228495699264</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06622641021750753</v>
+        <v>0.07719065603328215</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02419136642289847</v>
+        <v>0.02083712555826728</v>
       </c>
       <c r="R16" t="n">
-        <v>0.199037004578107</v>
+        <v>0.4948444322170421</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1242574188747774</v>
+        <v>0.1239195411071196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0008888888888888804</v>
+        <v>-0.002722222222222229</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0886102797146873</v>
+        <v>-0.4123030692847371</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02718080802272003</v>
+        <v>0.02313694126253007</v>
       </c>
       <c r="E17" t="n">
-        <v>7.728542599200476</v>
+        <v>4.526314476393889</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009929988729157551</v>
+        <v>0.007477138789804874</v>
       </c>
       <c r="G17" t="n">
-        <v>14.60049815031224</v>
+        <v>2.339694066711908</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
         <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.003421727972626144</v>
+        <v>-0.009247027741083245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1003115657412024</v>
+        <v>0.07375773686962742</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1037332937138286</v>
+        <v>0.08300476461071066</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1131214209955903</v>
+        <v>0.09524477432445046</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01280985525438791</v>
+        <v>0.02148703745482304</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3319160677385545</v>
+        <v>0.1991441962392991</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1233999150460335</v>
+        <v>0.123716368989195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01194444444444445</v>
+        <v>-0.0008888888888888957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9861754664895477</v>
+        <v>-0.08835321450334323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01446146008571677</v>
+        <v>0.01442038117996775</v>
       </c>
       <c r="E18" t="n">
-        <v>11.54090257712815</v>
+        <v>17.69732673716507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008289806397366123</v>
+        <v>0.004131922516786376</v>
       </c>
       <c r="G18" t="n">
-        <v>10.07716477895975</v>
+        <v>5.393882882347886</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04597946963216428</v>
+        <v>-0.003019437629741483</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08374263879771607</v>
+        <v>0.04075907406912951</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03776316916555179</v>
+        <v>0.04377851169887099</v>
       </c>
       <c r="N18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O18" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06018588237700175</v>
+        <v>0.05936246868478196</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02355675642071432</v>
+        <v>0.01860339461565245</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06656213413462318</v>
+        <v>0.1992586226424821</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1106468471548064</v>
+        <v>0.110573251955078</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003888888888888834</v>
+        <v>-0.002555555555555565</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1514592229574251</v>
+        <v>-0.2418907105887791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01913989922169666</v>
+        <v>0.02196361944217854</v>
       </c>
       <c r="E19" t="n">
-        <v>11.41058244976407</v>
+        <v>14.98663367974615</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004729910105452258</v>
+        <v>0.007718161894265871</v>
       </c>
       <c r="G19" t="n">
-        <v>3.311047791371441</v>
+        <v>10.67838167440326</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.001497005988023931</v>
+        <v>-0.008680883185506732</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04778098962991521</v>
+        <v>0.07613529320743065</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04927799561793914</v>
+        <v>0.08481617639293738</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07965666789084851</v>
+        <v>0.09041471616242727</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03187567826093329</v>
+        <v>0.01427942295499662</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1657859102773008</v>
+        <v>0.4964554513161714</v>
       </c>
       <c r="S19" t="n">
-        <v>0.110506053685636</v>
+        <v>0.1100737737103056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001888888888888887</v>
+        <v>-5.555555555556771e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5420763909950774</v>
+        <v>-0.003561130240666648</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01099862044674394</v>
+        <v>0.0168028294032441</v>
       </c>
       <c r="E20" t="n">
-        <v>6.576663325519087</v>
+        <v>11.37461755057005</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002691915066191645</v>
+        <v>0.004866278115596373</v>
       </c>
       <c r="G20" t="n">
-        <v>8.450197879505444</v>
+        <v>3.965495152672704</v>
       </c>
       <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
         <v>20</v>
       </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.007271171941830617</v>
+        <v>-0.0001887148518588825</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02719340600449257</v>
+        <v>0.04800307589234281</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03446457794632318</v>
+        <v>0.04819179074420169</v>
       </c>
       <c r="N20" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04577419379463767</v>
+        <v>0.06916997698032018</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0185807877901451</v>
+        <v>0.02116690108797737</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9817581599683841</v>
+        <v>0.330997933162806</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09062514931613608</v>
+        <v>0.09952039340263595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003888888888888885</v>
+        <v>-0.0004444444444444522</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4996171437754693</v>
+        <v>-0.05710492056212714</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01577400924422632</v>
+        <v>0.01776123094766423</v>
       </c>
       <c r="E21" t="n">
-        <v>6.525822979617772</v>
+        <v>9.34086303035401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005499396736470469</v>
+        <v>0.004197489977556562</v>
       </c>
       <c r="G21" t="n">
-        <v>5.088653601474579</v>
+        <v>3.358528349597385</v>
       </c>
       <c r="H21" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01497005988023951</v>
+        <v>-0.001509718814870756</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05555425210580407</v>
+        <v>0.04140585991257153</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07052431198604357</v>
+        <v>0.04291557872744228</v>
       </c>
       <c r="N21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06564846560164526</v>
+        <v>0.0731153013762606</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01009421349584119</v>
+        <v>0.03170944146368907</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1426514351368914</v>
+        <v>0.32984691287474</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09032995834870271</v>
+        <v>0.09055579505890214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006000000000000003</v>
+        <v>-0.001833333333333337</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6057666745096695</v>
+        <v>-0.2288355498150881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01940451108076355</v>
+        <v>0.01490897956567395</v>
       </c>
       <c r="E22" t="n">
-        <v>11.26940929685575</v>
+        <v>6.952563913478636</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005127407769867766</v>
+        <v>0.00389347446250036</v>
       </c>
       <c r="G22" t="n">
-        <v>5.44342013323679</v>
+        <v>7.514988798193675</v>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0230966638152267</v>
+        <v>-0.006227590111341776</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05179646378437315</v>
+        <v>0.03840691914202247</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07489312759959985</v>
+        <v>0.04463450925336425</v>
       </c>
       <c r="N22" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08075793277910756</v>
+        <v>0.06137381679055957</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02896146899473441</v>
+        <v>0.02296689764853709</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2482029197091105</v>
+        <v>0.9775487381836788</v>
       </c>
       <c r="S22" t="n">
-        <v>0.07648246071618854</v>
+        <v>0.09054170141729766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0008333333333333234</v>
+        <v>0.004611111111111108</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08351387636633315</v>
+        <v>0.4125012495723909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01115789422730638</v>
+        <v>0.02437857358797</v>
       </c>
       <c r="E23" t="n">
-        <v>7.598691202073846</v>
+        <v>8.587039523229656</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002697780669678408</v>
+        <v>0.006889613841433298</v>
       </c>
       <c r="G23" t="n">
-        <v>4.081253531700735</v>
+        <v>4.590599881644952</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.003207869974337002</v>
+        <v>0.01566333270428382</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02725265963365799</v>
+        <v>0.06796213620411362</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03046052960799499</v>
+        <v>0.05229880349982981</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04643706137272818</v>
+        <v>0.1003560372735416</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01918440173907019</v>
+        <v>0.03239390106942801</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9811767117841138</v>
+        <v>0.09967710696580628</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06653156089463352</v>
+        <v>0.08297172317944963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0002777777777777844</v>
+        <v>-0.005999999999999998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1080840047326702</v>
+        <v>-1.786155927199358</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01571143910667444</v>
+        <v>0.01752049874580865</v>
       </c>
       <c r="E24" t="n">
-        <v>13.55153241201711</v>
+        <v>8.354512535366464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004222032285203134</v>
+        <v>0.006045428394587391</v>
       </c>
       <c r="G24" t="n">
-        <v>5.331996992374427</v>
+        <v>7.108993756613351</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001069289991445706</v>
+        <v>-0.02038120400075485</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04265046826237075</v>
+        <v>0.05963472517056049</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04158117827092504</v>
+        <v>0.08001592917131534</v>
       </c>
       <c r="N24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06538806043393128</v>
+        <v>0.07212431108164047</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02273759217156053</v>
+        <v>0.01248958591107998</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9777679119789836</v>
+        <v>0.1995016613721778</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06233799454598322</v>
+        <v>0.076452506282487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003055555555555548</v>
+        <v>-0.0023888888888889</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2116792726817312</v>
+        <v>-0.6456118797431364</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02134629769282224</v>
+        <v>0.003715521541090539</v>
       </c>
       <c r="E25" t="n">
-        <v>23.44837010482311</v>
+        <v>3.284628569144682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01114335697934031</v>
+        <v>0.001977357767141727</v>
       </c>
       <c r="G25" t="n">
-        <v>8.256759663445921</v>
+        <v>2.281519600047636</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01176218990590245</v>
+        <v>-0.00811473862993021</v>
       </c>
       <c r="L25" t="n">
-        <v>0.112568867568656</v>
+        <v>0.01950551380493494</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1243310574745584</v>
+        <v>0.02762025243486515</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08883928417391099</v>
+        <v>0.0152951942377929</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.023729583394745</v>
+        <v>0.004210319567142039</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2485256474805941</v>
+        <v>0.9958073329011825</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05839644168544104</v>
+        <v>0.07128792924276828</v>
       </c>
     </row>
     <row r="26">
@@ -2139,546 +2139,485 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.006444444444444438</v>
+        <v>-0.004222222222222222</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5839249664928057</v>
+        <v>-0.4956211437180896</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01980415631506322</v>
+        <v>0.02131438867317483</v>
       </c>
       <c r="E26" t="n">
-        <v>10.50021140348736</v>
+        <v>8.581540914369436</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006555216450670804</v>
+        <v>0.007682957769343565</v>
       </c>
       <c r="G26" t="n">
-        <v>4.813798106865082</v>
+        <v>6.295439229864781</v>
       </c>
       <c r="H26" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02480752780153975</v>
+        <v>-0.01434232874127194</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06622001735092232</v>
+        <v>0.07578802446523672</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09102754515246207</v>
+        <v>0.09013035320650865</v>
       </c>
       <c r="N26" t="n">
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08242118122853943</v>
+        <v>0.08774211405065242</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01620116387761711</v>
+        <v>0.0119540895854157</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9840571291851341</v>
+        <v>0.3320103727536054</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05527601997753592</v>
+        <v>0.07097166420269695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.00488888888888889</v>
+        <v>-0.002277777777777777</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8913918864632381</v>
+        <v>-0.1143556781431903</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02423192390091209</v>
+        <v>0.0359258182303599</v>
       </c>
       <c r="E27" t="n">
-        <v>8.165391388796811</v>
+        <v>25.44231809901396</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008186496444624143</v>
+        <v>0.01922308719896011</v>
       </c>
       <c r="G27" t="n">
-        <v>7.876200805080406</v>
+        <v>22.50606950984227</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01881950384944397</v>
+        <v>-0.00773730892621249</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08269901393580982</v>
+        <v>0.1896248615013074</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1015185177852538</v>
+        <v>0.1973621704275199</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1008487188032416</v>
+        <v>0.1478910462254284</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01814970486743175</v>
+        <v>0.04173381527587905</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1992766375682325</v>
+        <v>0.9599381198307105</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05235185878384008</v>
+        <v>0.06580089286454564</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.001500000000000008</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.1405067617283844</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003455771951421021</v>
+        <v>0.01576954494251258</v>
       </c>
       <c r="E28" t="n">
-        <v>4.621579840131242</v>
+        <v>9.577914744189325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009590997026396539</v>
+        <v>0.003839268421762652</v>
       </c>
       <c r="G28" t="n">
-        <v>4.950538763170926</v>
+        <v>5.337310563153458</v>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.005095301000188741</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009688711185663914</v>
+        <v>0.03787220726868831</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009688711185663914</v>
+        <v>0.03277690626849957</v>
       </c>
       <c r="N28" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01438227419341928</v>
+        <v>0.06491639202461487</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.004693563007755371</v>
+        <v>0.02704418475592656</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9953283636119811</v>
+        <v>0.3303552703445691</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04543453626819286</v>
+        <v>0.0475448393931267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007777777777777812</v>
+        <v>-0.006999999999999992</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2093046500816848</v>
+        <v>-0.6162561171455492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01258282283647245</v>
+        <v>0.02154247949491133</v>
       </c>
       <c r="E29" t="n">
-        <v>19.67522962233527</v>
+        <v>9.497712338756237</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002779478795120109</v>
+        <v>0.008639579564466444</v>
       </c>
       <c r="G29" t="n">
-        <v>11.66754236226075</v>
+        <v>5.25913341601094</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I29" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002994011976047917</v>
+        <v>-0.02377807133421397</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02807796438522476</v>
+        <v>0.08522455635690504</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02508395240917684</v>
+        <v>0.109002627691119</v>
       </c>
       <c r="N29" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05236734677673086</v>
+        <v>0.08868106525406641</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0242893823915061</v>
+        <v>0.00345650889716137</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9762866014145385</v>
+        <v>0.1998618351577149</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04540277813064212</v>
+        <v>0.04737315247136235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001722222222222228</v>
+        <v>-0.007444444444444446</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6710622274440855</v>
+        <v>-1.104310622563552</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01384817306863502</v>
+        <v>0.02210584619822572</v>
       </c>
       <c r="E30" t="n">
-        <v>5.158479187059372</v>
+        <v>8.332768279170878</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003323751041067441</v>
+        <v>0.008136484908306417</v>
       </c>
       <c r="G30" t="n">
-        <v>3.739600470741925</v>
+        <v>5.735436488139642</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I30" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006629597946963241</v>
+        <v>-0.02528779014908474</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0335761379148829</v>
+        <v>0.08026181267744269</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02694653996791966</v>
+        <v>0.1055496028265274</v>
       </c>
       <c r="N30" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05763349692942991</v>
+        <v>0.09100020216634212</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02405735901454702</v>
+        <v>0.01073838948889944</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9765078012449445</v>
+        <v>0.4973297397749419</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04539893889448085</v>
+        <v>0.04523750904036038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.003166666666666664</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3219462341898252</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03904143454609713</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.971850060490336</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02274998900321101</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.336650877051033</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01218990590248074</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2298176845665809</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2420075904690616</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1624831222776459</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06733456228893495</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9369133496955877</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04495997026943335</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.002222222222222209</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.2404666990824222</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.01099119004952063</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.47115910489493</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.00358486824885952</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.298225016272395</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.007548594074353606</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.03536269373148317</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.02781409965712957</v>
       </c>
       <c r="N32" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.04524597283388972</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.00988327910240655</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0.4975413300848943</v>
       </c>
       <c r="S32" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04161843419681983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.008277777777777771</v>
+        <v>-0.007333333333333329</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.02059456733359</v>
+        <v>-0.7938844752427617</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02102863786359908</v>
+        <v>0.0221981026287617</v>
       </c>
       <c r="E33" t="n">
-        <v>4.698049127349769</v>
+        <v>8.536792630741971</v>
       </c>
       <c r="F33" t="n">
-        <v>0.008545640156939985</v>
+        <v>0.009014154258152638</v>
       </c>
       <c r="G33" t="n">
-        <v>2.697219013003128</v>
+        <v>3.043595731214542</v>
       </c>
       <c r="H33" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
         <v>23</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.03186484174508124</v>
+        <v>-0.02491036044536703</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08632704102538</v>
+        <v>0.08891952343877843</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1181918827704612</v>
+        <v>0.1138298838841455</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08751724359127251</v>
+        <v>0.09137998196552455</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001190202565892515</v>
+        <v>0.002460458526746118</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2499256344671437</v>
+        <v>0.249846315875432</v>
       </c>
       <c r="S33" t="n">
-        <v>0.04146247798593805</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.004222222222222212</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.420254839146577</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.03324831275298264</v>
-      </c>
-      <c r="E34" t="n">
-        <v>11.65557390212322</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.01720136275756224</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.753145236084132</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>24</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-0.0162532078699743</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.1737661218110834</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.1900193296810577</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.1383732367771908</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0353928850338926</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.965816951665904</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.03969826251072835</v>
+        <v>0.04146997821645595</v>
       </c>
     </row>
   </sheetData>
@@ -2744,16 +2683,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09899146380364852</v>
+        <v>0.1013742978993689</v>
       </c>
       <c r="D2" t="n">
-        <v>45.4105352393716</v>
+        <v>11.68422402249553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01169835593632007</v>
+        <v>0.01187668423282012</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2781,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9707531641344758</v>
+        <v>0.9784174698663071</v>
       </c>
     </row>
     <row r="7">
@@ -2853,7 +2792,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-31 11:41:54</t>
+          <t>2025-11-04 17:54:52</t>
         </is>
       </c>
     </row>
